--- a/AAII_Financials/Quarterly/CBNT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBNT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>CBNT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,92 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G8" s="3">
         <v>200</v>
@@ -752,19 +759,19 @@
         <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
+      <c r="K8" s="3">
+        <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -772,11 +779,17 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -801,11 +814,11 @@
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -819,19 +832,25 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>200</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G10" s="3">
         <v>200</v>
@@ -840,16 +859,16 @@
         <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
+        <v>100</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -896,22 +923,22 @@
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,37 +1002,43 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1027,11 +1072,11 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
@@ -1039,11 +1084,11 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,38 +1123,40 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1116,40 +1169,46 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
+      <c r="M18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
@@ -1157,11 +1216,17 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,10 +1254,10 @@
         <v>-400</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1204,14 +1271,14 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1219,43 +1286,49 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
@@ -1263,28 +1336,34 @@
       <c r="O21" s="3">
         <v>0</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1292,11 +1371,11 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1310,38 +1389,44 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2300</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1354,8 +1439,14 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,38 +1539,44 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2300</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1486,38 +1589,44 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1530,8 +1639,14 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,10 +1854,10 @@
         <v>400</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1732,14 +1871,14 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -1747,41 +1886,47 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -1794,8 +1939,14 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,38 +1989,44 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -1882,57 +2039,69 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,34 +2138,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>500</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
@@ -2011,8 +2184,14 @@
       <c r="P41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2064,19 +2249,19 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2122,11 +2313,11 @@
       <c r="I44" s="3">
         <v>0</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
@@ -2143,40 +2334,46 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2187,31 +2384,37 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -2231,8 +2434,14 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2255,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>200</v>
@@ -2275,22 +2484,28 @@
       <c r="P47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>200</v>
+      </c>
+      <c r="R47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -2298,29 +2513,35 @@
       <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,34 +2684,40 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,40 +2784,46 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>400</v>
+      </c>
+      <c r="F54" s="3">
         <v>200</v>
-      </c>
-      <c r="E54" s="3">
-        <v>300</v>
-      </c>
-      <c r="F54" s="3">
-        <v>300</v>
       </c>
       <c r="G54" s="3">
         <v>300</v>
       </c>
       <c r="H54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I54" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="J54" s="3">
         <v>200</v>
       </c>
       <c r="K54" s="3">
+        <v>600</v>
+      </c>
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
-        <v>300</v>
-      </c>
       <c r="M54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N54" s="3">
         <v>300</v>
@@ -2583,8 +2834,14 @@
       <c r="P54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>300</v>
+      </c>
+      <c r="R54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,35 +2878,37 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E57" s="3">
         <v>700</v>
       </c>
       <c r="F57" s="3">
+        <v>700</v>
+      </c>
+      <c r="G57" s="3">
+        <v>700</v>
+      </c>
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
@@ -2663,37 +2924,43 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2707,34 +2974,40 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>500</v>
+        <v>1900</v>
       </c>
       <c r="E59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -2751,31 +3024,37 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
@@ -2795,16 +3074,22 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2850,20 +3141,20 @@
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,35 +3324,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F66" s="3">
         <v>2200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
       <c r="L66" s="3">
         <v>0</v>
       </c>
@@ -3059,8 +3374,14 @@
       <c r="P66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,16 +3494,22 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,40 +3594,46 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-38600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-36800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-35100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-32800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-30400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-27700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-200</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-100</v>
       </c>
       <c r="N72" s="3">
         <v>-100</v>
@@ -3297,8 +3644,14 @@
       <c r="P72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,31 +3794,37 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
-      </c>
-      <c r="I76" s="3">
-        <v>200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>200</v>
       </c>
       <c r="K76" s="3">
         <v>200</v>
@@ -3462,10 +3833,10 @@
         <v>200</v>
       </c>
       <c r="M76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O76" s="3">
         <v>300</v>
@@ -3473,8 +3844,14 @@
       <c r="P76" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>300</v>
+      </c>
+      <c r="R76" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,87 +3894,99 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -3610,8 +3999,14 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3901,26 +4334,26 @@
         <v>-300</v>
       </c>
       <c r="E89" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F89" s="3">
         <v>-300</v>
       </c>
       <c r="G89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -3936,8 +4369,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4112,11 +4571,11 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
@@ -4124,14 +4583,20 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4909,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4424,23 +4927,23 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -4454,6 +4957,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBNT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBNT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>CBNT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
-      </c>
-      <c r="E8" s="3">
-        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>200</v>
@@ -756,13 +760,13 @@
         <v>200</v>
       </c>
       <c r="H8" s="3">
+        <v>200</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
@@ -770,11 +774,11 @@
       <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -785,11 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -820,8 +827,8 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
@@ -838,16 +845,19 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
-      </c>
-      <c r="E10" s="3">
-        <v>200</v>
       </c>
       <c r="F10" s="3">
         <v>200</v>
@@ -856,13 +866,13 @@
         <v>200</v>
       </c>
       <c r="H10" s="3">
+        <v>200</v>
+      </c>
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
-      </c>
-      <c r="J10" s="3">
-        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
@@ -870,8 +880,8 @@
       <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3">
+        <v>100</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -929,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
@@ -938,10 +952,10 @@
         <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,40 +1025,43 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1078,8 +1101,8 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
@@ -1090,8 +1113,8 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,41 +1151,42 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2300</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
@@ -1175,43 +1202,46 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>-800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-2300</v>
       </c>
       <c r="I18" s="3">
         <v>-2300</v>
       </c>
       <c r="J18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
+      <c r="N18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
@@ -1222,11 +1252,14 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,23 +1278,24 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1277,11 +1311,11 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1292,46 +1326,49 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1600</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-2300</v>
       </c>
       <c r="I21" s="3">
         <v>-2300</v>
       </c>
       <c r="J21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-2700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O21" s="3">
         <v>0</v>
@@ -1342,11 +1379,14 @@
       <c r="Q21" s="3">
         <v>0</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1357,7 +1397,7 @@
         <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1366,7 +1406,7 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1377,8 +1417,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1395,41 +1435,44 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1445,8 +1488,11 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,41 +1594,44 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2300</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -1595,41 +1647,44 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -1645,8 +1700,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,23 +1912,26 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1877,11 +1947,11 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -1892,44 +1962,47 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -1945,8 +2018,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,41 +2071,44 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -2045,63 +2124,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2149,28 +2236,28 @@
         <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>500</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2249,13 +2342,13 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -2264,7 +2357,7 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2290,13 +2383,16 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
@@ -2319,8 +2415,8 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
@@ -2340,28 +2436,31 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2369,14 +2468,14 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2390,19 +2489,22 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E46" s="3">
         <v>300</v>
       </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
@@ -2411,14 +2513,14 @@
         <v>200</v>
       </c>
       <c r="I46" s="3">
+        <v>200</v>
+      </c>
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2470,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>200</v>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2502,13 +2610,13 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -2519,14 +2627,14 @@
       <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>100</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -2534,14 +2642,17 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2716,11 +2836,11 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,22 +2913,25 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E54" s="3">
         <v>400</v>
       </c>
       <c r="F54" s="3">
+        <v>400</v>
+      </c>
+      <c r="G54" s="3">
         <v>200</v>
-      </c>
-      <c r="G54" s="3">
-        <v>300</v>
       </c>
       <c r="H54" s="3">
         <v>300</v>
@@ -2814,19 +2940,19 @@
         <v>300</v>
       </c>
       <c r="J54" s="3">
+        <v>300</v>
+      </c>
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>600</v>
-      </c>
-      <c r="L54" s="3">
-        <v>200</v>
       </c>
       <c r="M54" s="3">
         <v>200</v>
       </c>
       <c r="N54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O54" s="3">
         <v>300</v>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,16 +3010,17 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
-      </c>
-      <c r="E57" s="3">
-        <v>700</v>
       </c>
       <c r="F57" s="3">
         <v>700</v>
@@ -2898,20 +3029,20 @@
         <v>700</v>
       </c>
       <c r="H57" s="3">
+        <v>700</v>
+      </c>
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
@@ -2930,40 +3061,43 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2980,28 +3114,31 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>600</v>
       </c>
       <c r="H59" s="3">
         <v>600</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
@@ -3010,7 +3147,7 @@
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3030,35 +3167,38 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E60" s="3">
         <v>3400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
       <c r="L60" s="3">
         <v>0</v>
       </c>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3089,11 +3232,11 @@
         <v>300</v>
       </c>
       <c r="E61" s="3">
+        <v>300</v>
+      </c>
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3141,8 +3287,8 @@
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -3156,8 +3302,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,38 +3485,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E66" s="3">
         <v>3700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
-        <v>0</v>
-      </c>
       <c r="M66" s="3">
         <v>0</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3512,7 +3680,7 @@
         <v>100</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,43 +3771,46 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-41500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-40000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-38600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-36800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-35100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-32800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-30400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-27700</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-200</v>
       </c>
       <c r="M72" s="3">
         <v>-200</v>
       </c>
       <c r="N72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O72" s="3">
         <v>-100</v>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,34 +3983,37 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>200</v>
       </c>
       <c r="L76" s="3">
         <v>200</v>
@@ -3839,7 +4025,7 @@
         <v>200</v>
       </c>
       <c r="O76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P76" s="3">
         <v>300</v>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,96 +4089,102 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4200,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4334,10 +4551,10 @@
         <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-300</v>
       </c>
       <c r="G89" s="3">
         <v>-300</v>
@@ -4346,17 +4563,17 @@
         <v>-300</v>
       </c>
       <c r="I89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4577,8 +4807,8 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
@@ -4589,14 +4819,17 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4827,29 +5073,29 @@
         <v>400</v>
       </c>
       <c r="F100" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G100" s="3">
         <v>300</v>
       </c>
       <c r="H100" s="3">
+        <v>300</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
@@ -4859,14 +5105,17 @@
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4924,29 +5176,29 @@
         <v>100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBNT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBNT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>CBNT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>300</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>200</v>
       </c>
       <c r="G8" s="3">
         <v>200</v>
@@ -763,13 +767,13 @@
         <v>200</v>
       </c>
       <c r="I8" s="3">
+        <v>200</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
-      </c>
-      <c r="K8" s="3">
-        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
@@ -777,11 +781,11 @@
       <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -792,16 +796,19 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -830,8 +837,8 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -848,19 +855,22 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>200</v>
       </c>
       <c r="G10" s="3">
         <v>200</v>
@@ -869,13 +879,13 @@
         <v>200</v>
       </c>
       <c r="I10" s="3">
+        <v>200</v>
+      </c>
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
-      </c>
-      <c r="K10" s="3">
-        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
@@ -883,8 +893,8 @@
       <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3">
+        <v>100</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -946,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
@@ -955,10 +969,10 @@
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>4</v>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,43 +1045,46 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1104,8 +1127,8 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1116,8 +1139,8 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,44 +1178,45 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2300</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
@@ -1205,46 +1232,49 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>100</v>
       </c>
       <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-2300</v>
       </c>
       <c r="J18" s="3">
         <v>-2300</v>
       </c>
       <c r="K18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="L18" s="3">
         <v>-2700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
+      <c r="O18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
@@ -1255,11 +1285,14 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,26 +1312,27 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>600</v>
       </c>
       <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1314,11 +1348,11 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1329,49 +1363,52 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>800</v>
       </c>
       <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-2300</v>
       </c>
       <c r="J21" s="3">
         <v>-2300</v>
       </c>
       <c r="K21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="L21" s="3">
         <v>-2700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
@@ -1382,16 +1419,19 @@
       <c r="R21" s="3">
         <v>0</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1400,7 +1440,7 @@
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1409,7 +1449,7 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1420,8 +1460,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
@@ -1438,44 +1478,47 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2300</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
@@ -1491,8 +1534,11 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,44 +1646,47 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2300</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
@@ -1650,44 +1702,47 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2300</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,26 +1982,29 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-600</v>
       </c>
       <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1950,11 +2020,11 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -1965,47 +2035,50 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2300</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,44 +2150,47 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2300</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2239,28 +2326,28 @@
         <v>200</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>500</v>
-      </c>
-      <c r="M41" s="3">
-        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,25 +2423,28 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -2360,7 +2453,7 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2386,17 +2479,20 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
@@ -2418,8 +2514,8 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
+      <c r="M44" s="3">
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2448,22 +2547,22 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2471,14 +2570,14 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2492,22 +2591,25 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
-      </c>
-      <c r="E46" s="3">
-        <v>300</v>
       </c>
       <c r="F46" s="3">
         <v>300</v>
       </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
@@ -2516,14 +2618,14 @@
         <v>200</v>
       </c>
       <c r="J46" s="3">
+        <v>200</v>
+      </c>
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2578,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>200</v>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2613,13 +2721,13 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -2630,14 +2738,14 @@
       <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>100</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
@@ -2645,14 +2753,17 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2839,11 +2959,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,25 +3039,28 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
         <v>500</v>
-      </c>
-      <c r="E54" s="3">
-        <v>400</v>
       </c>
       <c r="F54" s="3">
         <v>400</v>
       </c>
       <c r="G54" s="3">
+        <v>400</v>
+      </c>
+      <c r="H54" s="3">
         <v>200</v>
-      </c>
-      <c r="H54" s="3">
-        <v>300</v>
       </c>
       <c r="I54" s="3">
         <v>300</v>
@@ -2943,19 +3069,19 @@
         <v>300</v>
       </c>
       <c r="K54" s="3">
+        <v>300</v>
+      </c>
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>600</v>
-      </c>
-      <c r="M54" s="3">
-        <v>200</v>
       </c>
       <c r="N54" s="3">
         <v>200</v>
       </c>
       <c r="O54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P54" s="3">
         <v>300</v>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,19 +3141,20 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>800</v>
-      </c>
-      <c r="F57" s="3">
-        <v>700</v>
       </c>
       <c r="G57" s="3">
         <v>700</v>
@@ -3032,20 +3163,20 @@
         <v>700</v>
       </c>
       <c r="I57" s="3">
+        <v>700</v>
+      </c>
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
@@ -3064,43 +3195,46 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3117,31 +3251,34 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>600</v>
       </c>
       <c r="I59" s="3">
         <v>600</v>
       </c>
       <c r="J59" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
@@ -3150,7 +3287,7 @@
         <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3170,38 +3307,41 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
         <v>4300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
       <c r="M60" s="3">
         <v>0</v>
       </c>
@@ -3223,23 +3363,26 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>300</v>
       </c>
       <c r="F61" s="3">
+        <v>300</v>
+      </c>
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3290,8 +3436,8 @@
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -3305,8 +3451,8 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,41 +3643,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E66" s="3">
         <v>4500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
-        <v>0</v>
-      </c>
       <c r="N66" s="3">
         <v>0</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,13 +3833,16 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E70" s="3">
         <v>100</v>
@@ -3683,7 +3851,7 @@
         <v>100</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,46 +3945,49 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-43100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-41500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-40000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-38600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-36800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-35100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-32800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-30400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-27700</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-200</v>
       </c>
       <c r="N72" s="3">
         <v>-200</v>
       </c>
       <c r="O72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P72" s="3">
         <v>-100</v>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,37 +4169,40 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-300</v>
-      </c>
-      <c r="L76" s="3">
-        <v>200</v>
       </c>
       <c r="M76" s="3">
         <v>200</v>
@@ -4028,7 +4214,7 @@
         <v>200</v>
       </c>
       <c r="P76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q76" s="3">
         <v>300</v>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,102 +4281,108 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2300</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,22 +4756,25 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="E89" s="3">
         <v>-300</v>
       </c>
       <c r="F89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-300</v>
       </c>
       <c r="H89" s="3">
         <v>-300</v>
@@ -4566,17 +4783,17 @@
         <v>-300</v>
       </c>
       <c r="J89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4810,8 +5040,8 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
@@ -4822,14 +5052,17 @@
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5076,29 +5322,29 @@
         <v>400</v>
       </c>
       <c r="G100" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H100" s="3">
         <v>300</v>
       </c>
       <c r="I100" s="3">
+        <v>300</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
@@ -5108,14 +5354,17 @@
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,41 +5416,44 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
         <v>100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBNT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBNT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>CBNT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,119 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
+        <v>300</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>200</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
@@ -779,19 +786,19 @@
         <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
+      <c r="O8" s="3">
+        <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -799,22 +806,28 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -840,11 +853,11 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
@@ -858,8 +871,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,22 +886,22 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>200</v>
-      </c>
-      <c r="H10" s="3">
-        <v>200</v>
       </c>
       <c r="I10" s="3">
         <v>200</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
@@ -891,16 +910,16 @@
         <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
+      <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
+        <v>100</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
@@ -914,8 +933,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -963,22 +990,22 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
+        <v>100</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>4</v>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,49 +1081,55 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1130,11 +1175,11 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
@@ -1142,11 +1187,11 @@
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,50 +1230,52 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2300</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
@@ -1235,52 +1288,58 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2200</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
@@ -1288,11 +1347,17 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,31 +1378,33 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-200</v>
       </c>
       <c r="H20" s="3">
         <v>-400</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1351,14 +1418,14 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1366,55 +1433,61 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F21" s="3">
         <v>800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R21" s="3">
         <v>0</v>
@@ -1422,40 +1495,46 @@
       <c r="S21" s="3">
         <v>0</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1463,11 +1542,11 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
@@ -1481,50 +1560,56 @@
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F23" s="3">
         <v>500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2300</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
@@ -1537,8 +1622,14 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,50 +1746,56 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2300</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
@@ -1705,50 +1808,56 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2300</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
@@ -1761,8 +1870,14 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,31 +2118,37 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>200</v>
       </c>
       <c r="H32" s="3">
         <v>400</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2023,14 +2162,14 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2038,53 +2177,59 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2300</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
@@ -2097,8 +2242,14 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,50 +2304,56 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2300</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
@@ -2209,69 +2366,81 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2485,10 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2323,37 +2496,37 @@
         <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
       </c>
       <c r="G41" s="3">
+        <v>200</v>
+      </c>
+      <c r="H41" s="3">
+        <v>200</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>500</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
@@ -2370,8 +2543,14 @@
       <c r="T41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2435,31 +2620,31 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2482,23 +2667,29 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
+        <v>100</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
@@ -2517,11 +2708,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
@@ -2538,52 +2729,58 @@
       <c r="T44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2594,13 +2791,19 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E46" s="3">
         <v>500</v>
@@ -2609,28 +2812,28 @@
         <v>300</v>
       </c>
       <c r="G46" s="3">
+        <v>500</v>
+      </c>
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
-        <v>200</v>
-      </c>
       <c r="I46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
       </c>
       <c r="K46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -2650,8 +2853,14 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2686,10 +2895,10 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
         <v>200</v>
@@ -2706,16 +2915,22 @@
       <c r="T47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>200</v>
+      </c>
+      <c r="V47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -2724,16 +2939,16 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -2741,29 +2956,35 @@
       <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="N48" s="3">
+        <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2962,14 +3201,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3287,14 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3051,43 +3302,43 @@
         <v>400</v>
       </c>
       <c r="E54" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F54" s="3">
         <v>400</v>
       </c>
       <c r="G54" s="3">
+        <v>500</v>
+      </c>
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
+        <v>400</v>
+      </c>
+      <c r="J54" s="3">
         <v>200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>300</v>
-      </c>
-      <c r="J54" s="3">
-        <v>300</v>
       </c>
       <c r="K54" s="3">
         <v>300</v>
       </c>
       <c r="L54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M54" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N54" s="3">
         <v>200</v>
       </c>
       <c r="O54" s="3">
+        <v>600</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
-        <v>300</v>
-      </c>
       <c r="Q54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R54" s="3">
         <v>300</v>
@@ -3098,8 +3349,14 @@
       <c r="T54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>300</v>
+      </c>
+      <c r="V54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,47 +3401,49 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>800</v>
+      </c>
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
-      </c>
-      <c r="G57" s="3">
-        <v>700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>700</v>
       </c>
       <c r="I57" s="3">
         <v>700</v>
       </c>
       <c r="J57" s="3">
+        <v>700</v>
+      </c>
+      <c r="K57" s="3">
+        <v>700</v>
+      </c>
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
@@ -3198,8 +3459,14 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3207,40 +3474,40 @@
         <v>500</v>
       </c>
       <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>500</v>
+      </c>
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3254,46 +3521,52 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3310,44 +3583,50 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
       <c r="O60" s="3">
         <v>0</v>
       </c>
@@ -3366,29 +3645,35 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>200</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3422,13 +3707,19 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -3439,11 +3730,11 @@
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -3454,11 +3745,11 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,47 +3955,53 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F66" s="3">
         <v>2300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3">
-        <v>0</v>
-      </c>
-      <c r="O66" s="3">
-        <v>0</v>
-      </c>
       <c r="P66" s="3">
         <v>0</v>
       </c>
@@ -3702,8 +4017,14 @@
       <c r="T66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,28 +4165,34 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F70" s="3">
         <v>700</v>
-      </c>
-      <c r="E70" s="3">
-        <v>100</v>
-      </c>
-      <c r="F70" s="3">
-        <v>100</v>
       </c>
       <c r="G70" s="3">
         <v>100</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,52 +4289,58 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-42600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-43100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-41500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-40000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-38600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-36800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-35100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-32800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-30400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-27700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-200</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-100</v>
       </c>
       <c r="R72" s="3">
         <v>-100</v>
@@ -4004,8 +4351,14 @@
       <c r="T72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,43 +4537,49 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-4100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
-      </c>
-      <c r="M76" s="3">
-        <v>200</v>
-      </c>
-      <c r="N76" s="3">
-        <v>200</v>
       </c>
       <c r="O76" s="3">
         <v>200</v>
@@ -4217,10 +4588,10 @@
         <v>200</v>
       </c>
       <c r="Q76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S76" s="3">
         <v>300</v>
@@ -4228,8 +4599,14 @@
       <c r="T76" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>300</v>
+      </c>
+      <c r="V76" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,111 +4661,123 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2300</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
@@ -4401,8 +4790,14 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,47 +5186,53 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-400</v>
       </c>
       <c r="H89" s="3">
         <v>-300</v>
       </c>
       <c r="I89" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J89" s="3">
         <v>-300</v>
       </c>
       <c r="K89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -4815,8 +5248,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5043,11 +5502,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
@@ -5055,14 +5514,20 @@
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,16 +5792,22 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F100" s="3">
         <v>400</v>
@@ -5325,46 +5816,52 @@
         <v>400</v>
       </c>
       <c r="H100" s="3">
+        <v>400</v>
+      </c>
+      <c r="I100" s="3">
+        <v>400</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,22 +5916,28 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
         <v>100</v>
       </c>
       <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
       </c>
       <c r="H102" s="3">
         <v>100</v>
@@ -5443,23 +5946,23 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5976,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBNT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBNT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>CBNT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,120 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
-      </c>
-      <c r="E8" s="3">
-        <v>300</v>
       </c>
       <c r="F8" s="3">
         <v>300</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>200</v>
@@ -783,25 +787,25 @@
         <v>200</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
       <c r="O8" s="3">
         <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -812,11 +816,14 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -824,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -859,8 +866,8 @@
       <c r="P9" s="3">
         <v>0</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
@@ -877,13 +884,16 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>200</v>
@@ -892,13 +902,13 @@
         <v>200</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
@@ -907,22 +917,22 @@
         <v>200</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
       <c r="O10" s="3">
         <v>100</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
+      <c r="Q10" s="3">
+        <v>100</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -996,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
@@ -1005,10 +1019,10 @@
         <v>100</v>
       </c>
       <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>4</v>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,52 +1104,55 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1181,8 +1204,8 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
@@ -1193,8 +1216,8 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,53 +1258,54 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>5000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2300</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
@@ -1294,55 +1321,58 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
       <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-2300</v>
       </c>
       <c r="M18" s="3">
         <v>-2300</v>
       </c>
       <c r="N18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-2700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
+      <c r="R18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
@@ -1353,11 +1383,14 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,35 +1413,36 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1424,11 +1458,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1439,58 +1473,61 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-2300</v>
       </c>
       <c r="M21" s="3">
         <v>-2300</v>
       </c>
       <c r="N21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="O21" s="3">
         <v>-2700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3">
-        <v>0</v>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S21" s="3">
         <v>0</v>
@@ -1501,11 +1538,14 @@
       <c r="U21" s="3">
         <v>0</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1516,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
@@ -1528,7 +1568,7 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1537,7 +1577,7 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1548,8 +1588,8 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
@@ -1566,53 +1606,56 @@
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
@@ -1628,8 +1671,11 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,53 +1801,56 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
@@ -1814,53 +1866,56 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
@@ -1876,8 +1931,11 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,35 +2191,38 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2168,11 +2238,11 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2183,56 +2253,59 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
@@ -2248,8 +2321,11 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,53 +2386,56 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
@@ -2372,75 +2451,81 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,19 +2573,20 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
-      </c>
-      <c r="F41" s="3">
-        <v>200</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
@@ -2508,29 +2595,29 @@
         <v>200</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2626,19 +2719,19 @@
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -2647,7 +2740,7 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2685,14 +2781,14 @@
         <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
@@ -2714,8 +2810,8 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
+      <c r="P44" s="3">
+        <v>0</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
@@ -2735,40 +2831,43 @@
       <c r="V44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2776,14 +2875,14 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2797,31 +2896,34 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
-      </c>
-      <c r="H46" s="3">
-        <v>300</v>
       </c>
       <c r="I46" s="3">
         <v>300</v>
       </c>
       <c r="J46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
@@ -2830,14 +2932,14 @@
         <v>200</v>
       </c>
       <c r="M46" s="3">
+        <v>200</v>
+      </c>
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2901,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="3">
         <v>200</v>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2933,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -2945,13 +3053,13 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -2962,14 +3070,14 @@
       <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
+      <c r="P48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
@@ -2977,14 +3085,17 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3207,11 +3327,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,34 +3416,37 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>500</v>
+      </c>
+      <c r="E54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>500</v>
-      </c>
-      <c r="H54" s="3">
-        <v>400</v>
       </c>
       <c r="I54" s="3">
         <v>400</v>
       </c>
       <c r="J54" s="3">
+        <v>400</v>
+      </c>
+      <c r="K54" s="3">
         <v>200</v>
-      </c>
-      <c r="K54" s="3">
-        <v>300</v>
       </c>
       <c r="L54" s="3">
         <v>300</v>
@@ -3329,19 +3455,19 @@
         <v>300</v>
       </c>
       <c r="N54" s="3">
+        <v>300</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>600</v>
-      </c>
-      <c r="P54" s="3">
-        <v>200</v>
       </c>
       <c r="Q54" s="3">
         <v>200</v>
       </c>
       <c r="R54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S54" s="3">
         <v>300</v>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,28 +3533,29 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>700</v>
       </c>
       <c r="J57" s="3">
         <v>700</v>
@@ -3433,20 +3564,20 @@
         <v>700</v>
       </c>
       <c r="L57" s="3">
+        <v>700</v>
+      </c>
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
@@ -3465,13 +3596,16 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
         <v>500</v>
@@ -3480,37 +3614,37 @@
         <v>500</v>
       </c>
       <c r="G58" s="3">
+        <v>500</v>
+      </c>
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3539,28 +3676,28 @@
         <v>600</v>
       </c>
       <c r="F59" s="3">
+        <v>600</v>
+      </c>
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>600</v>
       </c>
       <c r="L59" s="3">
         <v>600</v>
       </c>
       <c r="M59" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
@@ -3569,7 +3706,7 @@
         <v>200</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3589,47 +3726,50 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
       <c r="P60" s="3">
         <v>0</v>
       </c>
@@ -3651,32 +3791,35 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>300</v>
       </c>
       <c r="I61" s="3">
+        <v>300</v>
+      </c>
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3713,16 +3856,19 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -3736,8 +3882,8 @@
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -3751,8 +3897,8 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,50 +4116,53 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3">
-        <v>0</v>
-      </c>
       <c r="Q66" s="3">
         <v>0</v>
       </c>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4180,14 +4348,14 @@
         <v>2300</v>
       </c>
       <c r="E70" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F70" s="3">
         <v>1800</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>700</v>
       </c>
-      <c r="G70" s="3">
-        <v>100</v>
-      </c>
       <c r="H70" s="3">
         <v>100</v>
       </c>
@@ -4195,7 +4363,7 @@
         <v>100</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,55 +4466,58 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-54300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-53700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-46000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-42600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-43100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-41500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-40000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-38600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-36800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-35100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-32800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-30400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-27700</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-200</v>
       </c>
       <c r="Q72" s="3">
         <v>-200</v>
       </c>
       <c r="R72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S72" s="3">
         <v>-100</v>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,46 +4726,49 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
-      </c>
-      <c r="O76" s="3">
-        <v>200</v>
       </c>
       <c r="P76" s="3">
         <v>200</v>
@@ -4594,7 +4780,7 @@
         <v>200</v>
       </c>
       <c r="S76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T76" s="3">
         <v>300</v>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,120 +4856,126 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
@@ -4796,8 +4991,11 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5201,22 +5418,22 @@
         <v>-400</v>
       </c>
       <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-300</v>
       </c>
       <c r="H89" s="3">
         <v>-300</v>
       </c>
       <c r="I89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-300</v>
       </c>
       <c r="K89" s="3">
         <v>-300</v>
@@ -5225,17 +5442,17 @@
         <v>-300</v>
       </c>
       <c r="M89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5508,8 +5738,8 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
@@ -5520,14 +5750,17 @@
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,19 +6041,22 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
-      </c>
-      <c r="F100" s="3">
-        <v>400</v>
       </c>
       <c r="G100" s="3">
         <v>400</v>
@@ -5822,29 +6068,29 @@
         <v>400</v>
       </c>
       <c r="J100" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K100" s="3">
         <v>300</v>
       </c>
       <c r="L100" s="3">
+        <v>300</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
@@ -5854,14 +6100,17 @@
       <c r="T100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
+      <c r="U100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,50 +6171,53 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
         <v>100</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBNT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBNT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>CBNT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,127 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>300</v>
       </c>
       <c r="G8" s="3">
         <v>300</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
@@ -790,25 +794,25 @@
         <v>200</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -819,28 +823,31 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -869,8 +876,8 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
+      <c r="R9" s="3">
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
@@ -887,16 +894,19 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>200</v>
@@ -905,13 +915,13 @@
         <v>200</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
@@ -920,22 +930,22 @@
         <v>200</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
       <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
+      <c r="R10" s="3">
+        <v>100</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,13 +990,14 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -1013,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
@@ -1022,10 +1036,10 @@
         <v>100</v>
       </c>
       <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>4</v>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,55 +1124,58 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1207,8 +1230,8 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
@@ -1219,8 +1242,8 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,56 +1285,57 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2300</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
@@ -1324,58 +1351,61 @@
       <c r="W17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-2300</v>
       </c>
       <c r="N18" s="3">
         <v>-2300</v>
       </c>
       <c r="O18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="P18" s="3">
         <v>-2700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2200</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
+      <c r="S18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>
@@ -1386,11 +1416,14 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,38 +1447,39 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1461,11 +1495,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1476,61 +1510,64 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-2300</v>
       </c>
       <c r="N21" s="3">
         <v>-2300</v>
       </c>
       <c r="O21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="P21" s="3">
         <v>-2700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2200</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="3">
-        <v>0</v>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T21" s="3">
         <v>0</v>
@@ -1541,11 +1578,14 @@
       <c r="V21" s="3">
         <v>0</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1559,10 +1599,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
@@ -1571,7 +1611,7 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1580,7 +1620,7 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1591,8 +1631,8 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
@@ -1609,56 +1649,59 @@
       <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2300</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
@@ -1674,8 +1717,11 @@
       <c r="W23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,56 +1853,59 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2300</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
@@ -1869,56 +1921,59 @@
       <c r="W26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2300</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
@@ -1934,8 +1989,11 @@
       <c r="W27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,38 +2261,41 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2241,11 +2311,11 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -2256,59 +2326,62 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2300</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
@@ -2324,8 +2397,11 @@
       <c r="W33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,56 +2465,59 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2300</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
@@ -2454,78 +2533,84 @@
       <c r="W35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,22 +2660,23 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>200</v>
@@ -2598,29 +2685,29 @@
         <v>200</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,13 +2794,16 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -2722,19 +2815,19 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
@@ -2743,7 +2836,7 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2769,13 +2862,16 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
@@ -2784,14 +2880,14 @@
         <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
       <c r="J44" s="3">
         <v>0</v>
       </c>
@@ -2813,8 +2909,8 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
+      <c r="Q44" s="3">
+        <v>0</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>4</v>
@@ -2834,43 +2930,46 @@
       <c r="W44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2878,14 +2977,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -2899,34 +2998,37 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
-      </c>
-      <c r="I46" s="3">
-        <v>300</v>
       </c>
       <c r="J46" s="3">
         <v>300</v>
       </c>
       <c r="K46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
@@ -2935,14 +3037,14 @@
         <v>200</v>
       </c>
       <c r="N46" s="3">
+        <v>200</v>
+      </c>
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3009,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R47" s="3">
         <v>200</v>
@@ -3029,13 +3134,16 @@
       <c r="W47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -3044,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -3056,13 +3164,13 @@
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
@@ -3073,14 +3181,14 @@
       <c r="P48" s="3">
         <v>100</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
@@ -3088,37 +3196,40 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3330,11 +3450,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,37 +3542,40 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E54" s="3">
         <v>500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>500</v>
-      </c>
-      <c r="I54" s="3">
-        <v>400</v>
       </c>
       <c r="J54" s="3">
         <v>400</v>
       </c>
       <c r="K54" s="3">
+        <v>400</v>
+      </c>
+      <c r="L54" s="3">
         <v>200</v>
-      </c>
-      <c r="L54" s="3">
-        <v>300</v>
       </c>
       <c r="M54" s="3">
         <v>300</v>
@@ -3458,19 +3584,19 @@
         <v>300</v>
       </c>
       <c r="O54" s="3">
+        <v>300</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>600</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>200</v>
       </c>
       <c r="R54" s="3">
         <v>200</v>
       </c>
       <c r="S54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T54" s="3">
         <v>300</v>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,31 +3664,32 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>700</v>
       </c>
       <c r="K57" s="3">
         <v>700</v>
@@ -3567,20 +3698,20 @@
         <v>700</v>
       </c>
       <c r="M57" s="3">
+        <v>700</v>
+      </c>
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,7 +3742,7 @@
         <v>600</v>
       </c>
       <c r="E58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F58" s="3">
         <v>500</v>
@@ -3617,37 +3751,37 @@
         <v>500</v>
       </c>
       <c r="H58" s="3">
+        <v>500</v>
+      </c>
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3664,13 +3798,16 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E59" s="3">
         <v>600</v>
@@ -3679,28 +3816,28 @@
         <v>600</v>
       </c>
       <c r="G59" s="3">
+        <v>600</v>
+      </c>
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
-      </c>
-      <c r="L59" s="3">
-        <v>600</v>
       </c>
       <c r="M59" s="3">
         <v>600</v>
       </c>
       <c r="N59" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
@@ -3709,7 +3846,7 @@
         <v>200</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3729,50 +3866,53 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
       <c r="Q60" s="3">
         <v>0</v>
       </c>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3803,26 +3946,26 @@
         <v>500</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>300</v>
       </c>
       <c r="J61" s="3">
+        <v>300</v>
+      </c>
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3859,19 +4002,22 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>200</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -3885,8 +4031,8 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -3900,8 +4046,8 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,53 +4274,56 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
-        <v>0</v>
-      </c>
       <c r="R66" s="3">
         <v>0</v>
       </c>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,26 +4504,29 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="E70" s="3">
         <v>2300</v>
       </c>
       <c r="F70" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G70" s="3">
         <v>1800</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>700</v>
       </c>
-      <c r="H70" s="3">
-        <v>100</v>
-      </c>
       <c r="I70" s="3">
         <v>100</v>
       </c>
@@ -4366,7 +4534,7 @@
         <v>100</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,58 +4640,61 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-54300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-53700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-46000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-42600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-43100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-41500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-40000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-38600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-36800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-35100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-32800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-30400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-27700</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-200</v>
       </c>
       <c r="R72" s="3">
         <v>-200</v>
       </c>
       <c r="S72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="T72" s="3">
         <v>-100</v>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,49 +4912,52 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-300</v>
-      </c>
-      <c r="P76" s="3">
-        <v>200</v>
       </c>
       <c r="Q76" s="3">
         <v>200</v>
@@ -4783,7 +4969,7 @@
         <v>200</v>
       </c>
       <c r="T76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U76" s="3">
         <v>300</v>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,126 +5048,132 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2300</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
@@ -4994,8 +5189,11 @@
       <c r="W81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,34 +5623,37 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E89" s="3">
         <v>-400</v>
       </c>
       <c r="F89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-300</v>
       </c>
       <c r="I89" s="3">
         <v>-300</v>
       </c>
       <c r="J89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-400</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-300</v>
       </c>
       <c r="L89" s="3">
         <v>-300</v>
@@ -5445,17 +5662,17 @@
         <v>-300</v>
       </c>
       <c r="N89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5741,8 +5971,8 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
@@ -5753,14 +5983,17 @@
       <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,22 +6287,25 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
-      </c>
-      <c r="G100" s="3">
-        <v>400</v>
       </c>
       <c r="H100" s="3">
         <v>400</v>
@@ -6071,29 +6317,29 @@
         <v>400</v>
       </c>
       <c r="K100" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L100" s="3">
         <v>300</v>
       </c>
       <c r="M100" s="3">
+        <v>300</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
@@ -6103,14 +6349,17 @@
       <c r="U100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
+      <c r="V100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6183,44 +6435,44 @@
         <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
         <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBNT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBNT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>CBNT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,133 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>200</v>
+      </c>
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
-        <v>300</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
@@ -797,25 +800,25 @@
         <v>200</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
       <c r="Q8" s="3">
         <v>100</v>
       </c>
       <c r="R8" s="3">
         <v>100</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
@@ -826,31 +829,34 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -879,8 +885,8 @@
       <c r="R9" s="3">
         <v>0</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
+      <c r="S9" s="3">
+        <v>0</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
@@ -897,34 +903,37 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
       <c r="F10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>200</v>
       </c>
       <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>200</v>
@@ -933,22 +942,22 @@
         <v>200</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
       <c r="Q10" s="3">
         <v>100</v>
       </c>
       <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
+      <c r="S10" s="3">
+        <v>100</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,16 +1003,17 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -1030,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
@@ -1039,10 +1052,10 @@
         <v>100</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>4</v>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,58 +1143,61 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1233,8 +1255,8 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
@@ -1245,8 +1267,8 @@
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,59 +1311,60 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5000</v>
       </c>
-      <c r="G17" s="3">
-        <v>2100</v>
-      </c>
       <c r="H17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2300</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
@@ -1354,61 +1380,64 @@
       <c r="X17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-2300</v>
       </c>
       <c r="O18" s="3">
         <v>-2300</v>
       </c>
       <c r="P18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2200</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0</v>
+      <c r="T18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U18" s="3">
         <v>0</v>
@@ -1419,11 +1448,14 @@
       <c r="W18" s="3">
         <v>0</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,32 +1490,32 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1498,11 +1531,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -1513,64 +1546,67 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-2300</v>
       </c>
       <c r="O21" s="3">
         <v>-2300</v>
       </c>
       <c r="P21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2200</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3">
-        <v>0</v>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U21" s="3">
         <v>0</v>
@@ -1581,16 +1617,19 @@
       <c r="W21" s="3">
         <v>0</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1602,10 +1641,10 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
@@ -1614,7 +1653,7 @@
         <v>200</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1623,7 +1662,7 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1634,8 +1673,8 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
@@ -1652,59 +1691,62 @@
       <c r="X22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2300</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
@@ -1720,8 +1762,11 @@
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,59 +1904,62 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2300</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
@@ -1924,59 +1975,62 @@
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2300</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
@@ -1992,8 +2046,11 @@
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,32 +2342,32 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2314,11 +2383,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -2329,62 +2398,65 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2300</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
@@ -2400,8 +2472,11 @@
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,59 +2543,62 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2300</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
@@ -2536,81 +2614,87 @@
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,25 +2746,26 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
-      </c>
-      <c r="H41" s="3">
-        <v>200</v>
       </c>
       <c r="I41" s="3">
         <v>200</v>
@@ -2688,29 +2774,29 @@
         <v>200</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
@@ -2729,8 +2815,11 @@
       <c r="X41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,17 +2886,20 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
-        <v>100</v>
-      </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
@@ -2818,19 +2910,19 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
@@ -2839,7 +2931,7 @@
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2865,17 +2957,20 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>100</v>
+      </c>
+      <c r="E44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3">
-        <v>100</v>
-      </c>
       <c r="F44" s="3">
         <v>100</v>
       </c>
@@ -2883,14 +2978,14 @@
         <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
@@ -2912,8 +3007,8 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
+      <c r="R44" s="3">
+        <v>0</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>4</v>
@@ -2933,46 +3028,49 @@
       <c r="X44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2980,14 +3078,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3001,37 +3099,40 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
-      </c>
-      <c r="J46" s="3">
-        <v>300</v>
       </c>
       <c r="K46" s="3">
         <v>300</v>
       </c>
       <c r="L46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
@@ -3040,14 +3141,14 @@
         <v>200</v>
       </c>
       <c r="O46" s="3">
+        <v>200</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
@@ -3069,8 +3170,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3117,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S47" s="3">
         <v>200</v>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3146,7 +3253,7 @@
         <v>400</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -3155,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -3167,13 +3274,13 @@
         <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -3184,14 +3291,14 @@
       <c r="Q48" s="3">
         <v>100</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
@@ -3199,23 +3306,26 @@
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
+      <c r="W48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>700</v>
+      </c>
+      <c r="E49" s="3">
         <v>500</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3231,8 +3341,8 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3453,11 +3572,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,40 +3667,43 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>500</v>
-      </c>
-      <c r="J54" s="3">
-        <v>400</v>
       </c>
       <c r="K54" s="3">
         <v>400</v>
       </c>
       <c r="L54" s="3">
+        <v>400</v>
+      </c>
+      <c r="M54" s="3">
         <v>200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>300</v>
       </c>
       <c r="N54" s="3">
         <v>300</v>
@@ -3587,19 +3712,19 @@
         <v>300</v>
       </c>
       <c r="P54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>600</v>
-      </c>
-      <c r="R54" s="3">
-        <v>200</v>
       </c>
       <c r="S54" s="3">
         <v>200</v>
       </c>
       <c r="T54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U54" s="3">
         <v>300</v>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,34 +3794,35 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
-      </c>
-      <c r="K57" s="3">
-        <v>700</v>
       </c>
       <c r="L57" s="3">
         <v>700</v>
@@ -3701,20 +3831,20 @@
         <v>700</v>
       </c>
       <c r="N57" s="3">
+        <v>700</v>
+      </c>
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
@@ -3733,19 +3863,22 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E58" s="3">
         <v>600</v>
       </c>
       <c r="F58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G58" s="3">
         <v>500</v>
@@ -3754,37 +3887,37 @@
         <v>500</v>
       </c>
       <c r="I58" s="3">
+        <v>500</v>
+      </c>
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3801,16 +3934,19 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
-      </c>
-      <c r="E59" s="3">
-        <v>600</v>
       </c>
       <c r="F59" s="3">
         <v>600</v>
@@ -3819,28 +3955,28 @@
         <v>600</v>
       </c>
       <c r="H59" s="3">
+        <v>600</v>
+      </c>
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
-      </c>
-      <c r="M59" s="3">
-        <v>600</v>
       </c>
       <c r="N59" s="3">
         <v>600</v>
       </c>
       <c r="O59" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
@@ -3849,7 +3985,7 @@
         <v>200</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3869,53 +4005,56 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
-        <v>0</v>
-      </c>
       <c r="R60" s="3">
         <v>0</v>
       </c>
@@ -3937,8 +4076,11 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3949,26 +4091,26 @@
         <v>500</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>300</v>
       </c>
       <c r="K61" s="3">
+        <v>300</v>
+      </c>
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4005,22 +4147,25 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3">
+        <v>200</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -4034,8 +4179,8 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -4049,8 +4194,8 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,56 +4431,59 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="R66" s="3">
-        <v>0</v>
-      </c>
       <c r="S66" s="3">
         <v>0</v>
       </c>
@@ -4345,8 +4502,11 @@
       <c r="X66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4516,20 +4683,20 @@
         <v>2600</v>
       </c>
       <c r="E70" s="3">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="F70" s="3">
         <v>2300</v>
       </c>
       <c r="G70" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H70" s="3">
         <v>1800</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>700</v>
       </c>
-      <c r="I70" s="3">
-        <v>100</v>
-      </c>
       <c r="J70" s="3">
         <v>100</v>
       </c>
@@ -4537,7 +4704,7 @@
         <v>100</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,61 +4813,64 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-57500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-56300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-54300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-53700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-46000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-42600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-43100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-41500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-40000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-38600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-36800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-35100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-32800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-30400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-27700</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-200</v>
       </c>
       <c r="S72" s="3">
         <v>-200</v>
       </c>
       <c r="T72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U72" s="3">
         <v>-100</v>
@@ -4711,8 +4884,11 @@
       <c r="X72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,52 +5097,55 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>200</v>
       </c>
       <c r="R76" s="3">
         <v>200</v>
@@ -4972,7 +5157,7 @@
         <v>200</v>
       </c>
       <c r="U76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V76" s="3">
         <v>300</v>
@@ -4983,8 +5168,11 @@
       <c r="X76" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,132 +5239,138 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2300</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
@@ -5192,8 +5386,11 @@
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5635,28 +5851,28 @@
         <v>-500</v>
       </c>
       <c r="E89" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="F89" s="3">
         <v>-400</v>
       </c>
       <c r="G89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-300</v>
       </c>
       <c r="J89" s="3">
         <v>-300</v>
       </c>
       <c r="K89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L89" s="3">
         <v>-400</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-300</v>
       </c>
       <c r="M89" s="3">
         <v>-300</v>
@@ -5665,17 +5881,17 @@
         <v>-300</v>
       </c>
       <c r="O89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,31 +6150,34 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5974,8 +6203,8 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
@@ -5986,14 +6215,17 @@
       <c r="V94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,25 +6532,28 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>700</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
-      </c>
-      <c r="H100" s="3">
-        <v>400</v>
       </c>
       <c r="I100" s="3">
         <v>400</v>
@@ -6320,29 +6565,29 @@
         <v>400</v>
       </c>
       <c r="L100" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M100" s="3">
         <v>300</v>
       </c>
       <c r="N100" s="3">
+        <v>300</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>4</v>
       </c>
@@ -6352,14 +6597,17 @@
       <c r="V100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
+      <c r="W100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,56 +6674,59 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
         <v>100</v>
       </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
         <v>100</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>500</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBNT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBNT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>CBNT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,115 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -773,37 +781,37 @@
         <v>500</v>
       </c>
       <c r="E8" s="3">
+        <v>500</v>
+      </c>
+      <c r="F8" s="3">
+        <v>500</v>
+      </c>
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
       <c r="L8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>200</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P8" s="3">
         <v>200</v>
@@ -812,19 +820,19 @@
         <v>100</v>
       </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S8" s="3">
         <v>100</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
+      <c r="T8" s="3">
+        <v>100</v>
       </c>
       <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W8" s="3">
         <v>0</v>
@@ -832,37 +840,43 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -888,11 +902,11 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>4</v>
@@ -906,22 +920,28 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
+        <v>300</v>
+      </c>
+      <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>500</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>200</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
@@ -930,22 +950,22 @@
         <v>200</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>200</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P10" s="3">
         <v>200</v>
@@ -954,16 +974,16 @@
         <v>100</v>
       </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S10" s="3">
         <v>100</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
+        <v>100</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>4</v>
@@ -977,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,13 +1030,15 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
@@ -1018,8 +1046,8 @@
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -1046,22 +1074,22 @@
         <v>0</v>
       </c>
       <c r="P12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R12" s="3">
         <v>100</v>
       </c>
       <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="T12" s="3">
+        <v>100</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>4</v>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,64 +1180,70 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>400</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1258,11 +1304,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>4</v>
@@ -1270,11 +1316,11 @@
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,65 +1364,67 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>5000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2300</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
         <v>0</v>
       </c>
@@ -1383,67 +1437,73 @@
       <c r="Y17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-4800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-2600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-2200</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0</v>
+      <c r="V18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W18" s="3">
         <v>0</v>
@@ -1451,11 +1511,17 @@
       <c r="X18" s="3">
         <v>0</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1493,34 +1561,34 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-200</v>
       </c>
       <c r="M20" s="3">
         <v>-400</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1534,14 +1602,14 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
+      <c r="T20" s="3">
+        <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
+      <c r="V20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
@@ -1549,70 +1617,76 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-4800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-2600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-2200</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
-        <v>0</v>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W21" s="3">
         <v>0</v>
@@ -1620,22 +1694,28 @@
       <c r="X21" s="3">
         <v>0</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1644,31 +1724,31 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1676,11 +1756,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
@@ -1694,65 +1774,71 @@
       <c r="Y22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-4900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-2300</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
@@ -1765,8 +1851,14 @@
       <c r="Y23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,65 +2005,71 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-4900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-2300</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
@@ -1978,65 +2082,71 @@
       <c r="Y26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-7700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-2300</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
@@ -2049,8 +2159,14 @@
       <c r="Y27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2345,34 +2485,34 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>400</v>
-      </c>
-      <c r="L32" s="3">
-        <v>200</v>
       </c>
       <c r="M32" s="3">
         <v>400</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2386,14 +2526,14 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
+      <c r="T32" s="3">
+        <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
+      <c r="V32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
@@ -2401,68 +2541,74 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-7700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-2300</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
@@ -2475,8 +2621,14 @@
       <c r="Y33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,65 +2698,71 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-7700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-2300</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
@@ -2617,84 +2775,96 @@
       <c r="Y35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,22 +2919,24 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
-      </c>
-      <c r="F41" s="3">
-        <v>300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>300</v>
@@ -2771,38 +2945,38 @@
         <v>200</v>
       </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
-      <c r="T41" s="3">
-        <v>100</v>
-      </c>
       <c r="U41" s="3">
         <v>100</v>
       </c>
@@ -2818,8 +2992,14 @@
       <c r="Y41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,23 +3069,29 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>300</v>
+      </c>
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
@@ -2913,31 +3099,31 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2960,8 +3146,14 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2969,29 +3161,29 @@
         <v>100</v>
       </c>
       <c r="E44" s="3">
+        <v>100</v>
+      </c>
+      <c r="F44" s="3">
+        <v>100</v>
+      </c>
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3">
-        <v>100</v>
-      </c>
-      <c r="G44" s="3">
-        <v>100</v>
-      </c>
       <c r="H44" s="3">
         <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
+        <v>100</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
@@ -3010,11 +3202,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>4</v>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>4</v>
@@ -3031,67 +3223,73 @@
       <c r="Y44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3102,28 +3300,34 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>600</v>
+      </c>
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
-      </c>
-      <c r="F46" s="3">
-        <v>500</v>
-      </c>
-      <c r="G46" s="3">
-        <v>400</v>
       </c>
       <c r="H46" s="3">
         <v>500</v>
       </c>
       <c r="I46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J46" s="3">
         <v>500</v>
@@ -3132,28 +3336,28 @@
         <v>300</v>
       </c>
       <c r="L46" s="3">
+        <v>500</v>
+      </c>
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
-        <v>200</v>
-      </c>
       <c r="N46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T46" s="3">
         <v>0</v>
@@ -3173,8 +3377,14 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3224,10 +3434,10 @@
         <v>0</v>
       </c>
       <c r="S47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U47" s="3">
         <v>200</v>
@@ -3244,31 +3454,37 @@
       <c r="Y47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E48" s="3">
         <v>400</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -3277,16 +3493,16 @@
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
@@ -3294,29 +3510,35 @@
       <c r="R48" s="3">
         <v>100</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
+      <c r="S48" s="3">
+        <v>100</v>
       </c>
       <c r="T48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
+      <c r="V48" s="3">
+        <v>0</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3324,14 +3546,14 @@
         <v>700</v>
       </c>
       <c r="E49" s="3">
+        <v>700</v>
+      </c>
+      <c r="F49" s="3">
+        <v>700</v>
+      </c>
+      <c r="G49" s="3">
         <v>500</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3344,11 +3566,11 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3575,14 +3815,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,67 +3916,73 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F54" s="3">
         <v>2100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>500</v>
-      </c>
-      <c r="G54" s="3">
-        <v>400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>600</v>
       </c>
       <c r="I54" s="3">
         <v>400</v>
       </c>
       <c r="J54" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K54" s="3">
         <v>400</v>
       </c>
       <c r="L54" s="3">
+        <v>500</v>
+      </c>
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
+        <v>400</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
-      </c>
-      <c r="N54" s="3">
-        <v>300</v>
-      </c>
-      <c r="O54" s="3">
-        <v>300</v>
       </c>
       <c r="P54" s="3">
         <v>300</v>
       </c>
       <c r="Q54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R54" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="S54" s="3">
         <v>200</v>
       </c>
       <c r="T54" s="3">
+        <v>600</v>
+      </c>
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3">
-        <v>300</v>
-      </c>
       <c r="V54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W54" s="3">
         <v>300</v>
@@ -3741,8 +3993,14 @@
       <c r="Y54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +4055,10 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3807,50 +4069,50 @@
         <v>900</v>
       </c>
       <c r="F57" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G57" s="3">
         <v>900</v>
       </c>
       <c r="H57" s="3">
+        <v>700</v>
+      </c>
+      <c r="I57" s="3">
+        <v>900</v>
+      </c>
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
-      </c>
-      <c r="L57" s="3">
-        <v>700</v>
-      </c>
-      <c r="M57" s="3">
-        <v>700</v>
       </c>
       <c r="N57" s="3">
         <v>700</v>
       </c>
       <c r="O57" s="3">
+        <v>700</v>
+      </c>
+      <c r="P57" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
       <c r="U57" s="3">
         <v>0</v>
       </c>
@@ -3866,64 +4128,70 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>500</v>
-      </c>
-      <c r="H58" s="3">
-        <v>500</v>
       </c>
       <c r="I58" s="3">
         <v>500</v>
       </c>
       <c r="J58" s="3">
+        <v>500</v>
+      </c>
+      <c r="K58" s="3">
+        <v>500</v>
+      </c>
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -3937,61 +4205,67 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>600</v>
       </c>
       <c r="H59" s="3">
         <v>600</v>
       </c>
       <c r="I59" s="3">
+        <v>600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
-      </c>
-      <c r="P59" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -4008,59 +4282,65 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
-      <c r="S60" s="3">
-        <v>0</v>
-      </c>
       <c r="T60" s="3">
         <v>0</v>
       </c>
@@ -4079,13 +4359,19 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
         <v>500</v>
@@ -4094,29 +4380,29 @@
         <v>500</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>100</v>
+      </c>
+      <c r="L61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4150,28 +4436,34 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="F62" s="3">
+        <v>200</v>
+      </c>
+      <c r="G62" s="3">
+        <v>200</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -4182,11 +4474,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
@@ -4197,11 +4489,11 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,62 +4744,68 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F66" s="3">
         <v>3600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>400</v>
       </c>
-      <c r="S66" s="3">
-        <v>0</v>
-      </c>
-      <c r="T66" s="3">
-        <v>0</v>
-      </c>
       <c r="U66" s="3">
         <v>0</v>
       </c>
@@ -4505,8 +4821,14 @@
       <c r="Y66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,43 +5004,49 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E70" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F70" s="3">
         <v>2600</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>2600</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>2300</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>2300</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>1800</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>700</v>
       </c>
-      <c r="J70" s="3">
-        <v>100</v>
-      </c>
-      <c r="K70" s="3">
-        <v>100</v>
-      </c>
       <c r="L70" s="3">
         <v>100</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,67 +5158,73 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-59400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-57500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-56300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-54300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-53700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-46000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-42600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-43100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-41500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-40000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-38600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-36800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-35100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-32800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-30400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-27700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-200</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-100</v>
       </c>
       <c r="W72" s="3">
         <v>-100</v>
@@ -4887,8 +5235,14 @@
       <c r="Y72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,58 +5466,64 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-4300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-4000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-4100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-3400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-300</v>
-      </c>
-      <c r="R76" s="3">
-        <v>200</v>
-      </c>
-      <c r="S76" s="3">
-        <v>200</v>
       </c>
       <c r="T76" s="3">
         <v>200</v>
@@ -5160,10 +5532,10 @@
         <v>200</v>
       </c>
       <c r="V76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X76" s="3">
         <v>300</v>
@@ -5171,8 +5543,14 @@
       <c r="Y76" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,141 +5620,153 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-7700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-2300</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
@@ -5389,8 +5779,14 @@
       <c r="Y81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,62 +6270,68 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
         <v>-500</v>
       </c>
       <c r="F89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-400</v>
       </c>
       <c r="M89" s="3">
         <v>-300</v>
       </c>
       <c r="N89" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O89" s="3">
         <v>-300</v>
       </c>
       <c r="P89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1000</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
@@ -5913,8 +6347,14 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,19 +6607,25 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -6179,11 +6639,11 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -6206,11 +6666,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>4</v>
@@ -6218,14 +6678,20 @@
       <c r="W94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
+      <c r="X94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,31 +7021,37 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>700</v>
-      </c>
-      <c r="E100" s="3">
-        <v>300</v>
-      </c>
-      <c r="F100" s="3">
-        <v>500</v>
       </c>
       <c r="G100" s="3">
         <v>300</v>
       </c>
       <c r="H100" s="3">
+        <v>500</v>
+      </c>
+      <c r="I100" s="3">
+        <v>300</v>
+      </c>
+      <c r="J100" s="3">
         <v>800</v>
-      </c>
-      <c r="I100" s="3">
-        <v>400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>400</v>
       </c>
       <c r="K100" s="3">
         <v>400</v>
@@ -6568,46 +7060,52 @@
         <v>400</v>
       </c>
       <c r="M100" s="3">
+        <v>400</v>
+      </c>
+      <c r="N100" s="3">
+        <v>400</v>
+      </c>
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>1000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,37 +7175,43 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>100</v>
@@ -6716,23 +7220,23 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>500</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -6746,6 +7250,12 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBNT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBNT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>CBNT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,120 +665,124 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E8" s="3">
         <v>500</v>
@@ -787,28 +791,28 @@
         <v>500</v>
       </c>
       <c r="G8" s="3">
+        <v>500</v>
+      </c>
+      <c r="H8" s="3">
         <v>700</v>
       </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
       <c r="I8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>200</v>
       </c>
       <c r="K8" s="3">
+        <v>200</v>
+      </c>
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>200</v>
@@ -817,25 +821,25 @@
         <v>200</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
-        <v>100</v>
-      </c>
       <c r="T8" s="3">
         <v>100</v>
       </c>
       <c r="U8" s="3">
         <v>100</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
+      <c r="V8" s="3">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X8" s="3">
         <v>0</v>
@@ -846,11 +850,14 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -861,25 +868,25 @@
         <v>200</v>
       </c>
       <c r="F9" s="3">
+        <v>200</v>
+      </c>
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -908,8 +915,8 @@
       <c r="U9" s="3">
         <v>0</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
+      <c r="V9" s="3">
+        <v>0</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>4</v>
@@ -926,43 +933,46 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E10" s="3">
         <v>300</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
       <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
         <v>200</v>
@@ -971,22 +981,22 @@
         <v>200</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
       <c r="T10" s="3">
         <v>100</v>
       </c>
       <c r="U10" s="3">
         <v>100</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
+      <c r="V10" s="3">
+        <v>100</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>4</v>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,14 +1057,14 @@
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -1080,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S12" s="3">
         <v>100</v>
@@ -1089,10 +1103,10 @@
         <v>100</v>
       </c>
       <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>4</v>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,67 +1203,70 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>400</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1310,8 +1333,8 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
@@ -1322,8 +1345,8 @@
       <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,68 +1392,69 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2300</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
         <v>0</v>
       </c>
@@ -1443,70 +1470,73 @@
       <c r="AA17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
       <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-2300</v>
       </c>
       <c r="R18" s="3">
         <v>-2300</v>
       </c>
       <c r="S18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="T18" s="3">
         <v>-2700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2200</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W18" s="3">
-        <v>0</v>
+      <c r="W18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X18" s="3">
         <v>0</v>
@@ -1517,11 +1547,14 @@
       <c r="Z18" s="3">
         <v>0</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1567,32 +1601,32 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1608,11 +1642,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0</v>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
@@ -1623,73 +1657,76 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1600</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-2300</v>
       </c>
       <c r="R21" s="3">
         <v>-2300</v>
       </c>
       <c r="S21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="T21" s="3">
         <v>-2700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2200</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W21" s="3">
-        <v>0</v>
+      <c r="W21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X21" s="3">
         <v>0</v>
@@ -1700,11 +1737,14 @@
       <c r="Z21" s="3">
         <v>0</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1712,13 +1752,13 @@
         <v>400</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1730,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
@@ -1742,7 +1782,7 @@
         <v>200</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
@@ -1751,7 +1791,7 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1762,8 +1802,8 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>4</v>
@@ -1780,68 +1820,71 @@
       <c r="AA22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2300</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
         <v>0</v>
       </c>
@@ -1857,8 +1900,11 @@
       <c r="AA23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,68 +2060,71 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2300</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
         <v>0</v>
       </c>
@@ -2088,8 +2140,11 @@
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2097,59 +2152,59 @@
         <v>-1000</v>
       </c>
       <c r="E27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2300</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
         <v>0</v>
       </c>
@@ -2165,8 +2220,11 @@
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2491,32 +2561,32 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2532,11 +2602,11 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W32" s="3">
-        <v>0</v>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
@@ -2547,11 +2617,14 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2559,59 +2632,59 @@
         <v>-1000</v>
       </c>
       <c r="E33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2300</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
         <v>0</v>
       </c>
@@ -2627,8 +2700,11 @@
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,8 +2780,11 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2713,59 +2792,59 @@
         <v>-1000</v>
       </c>
       <c r="E35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2300</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
         <v>0</v>
       </c>
@@ -2781,90 +2860,96 @@
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2933,22 +3020,22 @@
         <v>200</v>
       </c>
       <c r="F41" s="3">
+        <v>200</v>
+      </c>
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
-      </c>
-      <c r="K41" s="3">
-        <v>200</v>
       </c>
       <c r="L41" s="3">
         <v>200</v>
@@ -2957,29 +3044,29 @@
         <v>200</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,26 +3165,29 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
-      </c>
-      <c r="E43" s="3">
-        <v>300</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
       </c>
       <c r="G43" s="3">
+        <v>300</v>
+      </c>
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
@@ -3105,19 +3198,19 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
@@ -3126,7 +3219,7 @@
         <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3167,11 +3263,11 @@
         <v>100</v>
       </c>
       <c r="G44" s="3">
+        <v>100</v>
+      </c>
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3">
-        <v>100</v>
-      </c>
       <c r="I44" s="3">
         <v>100</v>
       </c>
@@ -3179,14 +3275,14 @@
         <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
@@ -3208,8 +3304,8 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>4</v>
+      <c r="U44" s="3">
+        <v>0</v>
       </c>
       <c r="V44" s="3" t="s">
         <v>4</v>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3238,46 +3337,46 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3285,14 +3384,14 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
@@ -3306,46 +3405,49 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
-      </c>
-      <c r="M46" s="3">
-        <v>300</v>
       </c>
       <c r="N46" s="3">
         <v>300</v>
       </c>
       <c r="O46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
@@ -3354,14 +3456,14 @@
         <v>200</v>
       </c>
       <c r="R46" s="3">
+        <v>200</v>
+      </c>
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
         <v>0</v>
       </c>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3440,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="U47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V47" s="3">
         <v>200</v>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3469,7 +3577,7 @@
         <v>500</v>
       </c>
       <c r="E48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F48" s="3">
         <v>400</v>
@@ -3478,7 +3586,7 @@
         <v>400</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -3487,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -3499,13 +3607,13 @@
         <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
@@ -3516,14 +3624,14 @@
       <c r="T48" s="3">
         <v>100</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V48" s="3">
-        <v>0</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>4</v>
@@ -3531,19 +3639,22 @@
       <c r="Y48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z48" s="3">
-        <v>0</v>
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E49" s="3">
         <v>700</v>
@@ -3552,11 +3663,11 @@
         <v>700</v>
       </c>
       <c r="G49" s="3">
+        <v>700</v>
+      </c>
+      <c r="H49" s="3">
         <v>500</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3572,8 +3683,8 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3821,11 +3941,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,49 +4045,52 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>500</v>
-      </c>
-      <c r="M54" s="3">
-        <v>400</v>
       </c>
       <c r="N54" s="3">
         <v>400</v>
       </c>
       <c r="O54" s="3">
+        <v>400</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
-      </c>
-      <c r="P54" s="3">
-        <v>300</v>
       </c>
       <c r="Q54" s="3">
         <v>300</v>
@@ -3973,19 +4099,19 @@
         <v>300</v>
       </c>
       <c r="S54" s="3">
+        <v>300</v>
+      </c>
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>600</v>
-      </c>
-      <c r="U54" s="3">
-        <v>200</v>
       </c>
       <c r="V54" s="3">
         <v>200</v>
       </c>
       <c r="W54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X54" s="3">
         <v>300</v>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4066,34 +4197,34 @@
         <v>800</v>
       </c>
       <c r="E57" s="3">
+        <v>800</v>
+      </c>
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
-      </c>
-      <c r="N57" s="3">
-        <v>700</v>
       </c>
       <c r="O57" s="3">
         <v>700</v>
@@ -4102,20 +4233,20 @@
         <v>700</v>
       </c>
       <c r="Q57" s="3">
+        <v>700</v>
+      </c>
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
@@ -4134,28 +4265,31 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E58" s="3">
         <v>1500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>600</v>
       </c>
       <c r="H58" s="3">
         <v>600</v>
       </c>
       <c r="I58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J58" s="3">
         <v>500</v>
@@ -4164,37 +4298,37 @@
         <v>500</v>
       </c>
       <c r="L58" s="3">
+        <v>500</v>
+      </c>
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4211,25 +4345,28 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
-      </c>
-      <c r="H59" s="3">
-        <v>600</v>
       </c>
       <c r="I59" s="3">
         <v>600</v>
@@ -4238,28 +4375,28 @@
         <v>600</v>
       </c>
       <c r="K59" s="3">
+        <v>600</v>
+      </c>
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
-      </c>
-      <c r="P59" s="3">
-        <v>600</v>
       </c>
       <c r="Q59" s="3">
         <v>600</v>
       </c>
       <c r="R59" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="S59" s="3">
         <v>200</v>
@@ -4268,7 +4405,7 @@
         <v>200</v>
       </c>
       <c r="U59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -4288,62 +4425,65 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E60" s="3">
         <v>3500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>500</v>
       </c>
-      <c r="T60" s="3">
-        <v>0</v>
-      </c>
       <c r="U60" s="3">
         <v>0</v>
       </c>
@@ -4365,8 +4505,11 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4374,7 +4517,7 @@
         <v>300</v>
       </c>
       <c r="E61" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F61" s="3">
         <v>500</v>
@@ -4386,26 +4529,26 @@
         <v>500</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>300</v>
       </c>
       <c r="N61" s="3">
+        <v>300</v>
+      </c>
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4451,7 +4597,7 @@
         <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
@@ -4459,14 +4605,14 @@
       <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>200</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -4480,8 +4626,8 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
@@ -4495,8 +4641,8 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,65 +4905,68 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>400</v>
       </c>
-      <c r="U66" s="3">
-        <v>0</v>
-      </c>
       <c r="V66" s="3">
         <v>0</v>
       </c>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,38 +5175,41 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E70" s="3">
         <v>2800</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>2900</v>
-      </c>
-      <c r="F70" s="3">
-        <v>2600</v>
       </c>
       <c r="G70" s="3">
         <v>2600</v>
       </c>
       <c r="H70" s="3">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="I70" s="3">
         <v>2300</v>
       </c>
       <c r="J70" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K70" s="3">
         <v>1800</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>700</v>
       </c>
-      <c r="L70" s="3">
-        <v>100</v>
-      </c>
       <c r="M70" s="3">
         <v>100</v>
       </c>
@@ -5049,7 +5217,7 @@
         <v>100</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,70 +5335,73 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-60500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-59400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-57500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-56300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-54300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-53700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-46000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-42600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-43100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-41500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-40000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-38600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-36800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-35100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-32800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-30400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-27700</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-200</v>
       </c>
       <c r="V72" s="3">
         <v>-200</v>
       </c>
       <c r="W72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="X72" s="3">
         <v>-100</v>
@@ -5241,8 +5415,11 @@
       <c r="AA72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,61 +5655,64 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-300</v>
-      </c>
-      <c r="T76" s="3">
-        <v>200</v>
       </c>
       <c r="U76" s="3">
         <v>200</v>
@@ -5538,7 +5724,7 @@
         <v>200</v>
       </c>
       <c r="X76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y76" s="3">
         <v>300</v>
@@ -5549,8 +5735,11 @@
       <c r="AA76" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,90 +5815,96 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5717,59 +5912,59 @@
         <v>-1000</v>
       </c>
       <c r="E81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2300</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
         <v>0</v>
       </c>
@@ -5785,8 +5980,11 @@
       <c r="AA81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,16 +6490,19 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-500</v>
       </c>
       <c r="F89" s="3">
         <v>-500</v>
@@ -6294,28 +6511,28 @@
         <v>-500</v>
       </c>
       <c r="H89" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I89" s="3">
         <v>-400</v>
       </c>
       <c r="J89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-300</v>
       </c>
       <c r="M89" s="3">
         <v>-300</v>
       </c>
       <c r="N89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O89" s="3">
         <v>-400</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-300</v>
       </c>
       <c r="P89" s="3">
         <v>-300</v>
@@ -6324,17 +6541,17 @@
         <v>-300</v>
       </c>
       <c r="R89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1000</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6624,11 +6854,11 @@
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -6645,8 +6875,8 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -6672,8 +6902,8 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>4</v>
@@ -6684,14 +6914,17 @@
       <c r="Y94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,34 +7270,37 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
-      </c>
-      <c r="K100" s="3">
-        <v>400</v>
       </c>
       <c r="L100" s="3">
         <v>400</v>
@@ -7066,29 +7312,29 @@
         <v>400</v>
       </c>
       <c r="O100" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P100" s="3">
         <v>300</v>
       </c>
       <c r="Q100" s="3">
+        <v>300</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
       <c r="T100" s="3">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
         <v>1000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>4</v>
       </c>
@@ -7098,14 +7344,17 @@
       <c r="Y100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
+      <c r="Z100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,65 +7430,68 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
         <v>100</v>
       </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
       <c r="M102" s="3">
         <v>100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>500</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBNT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBNT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>CBNT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,173 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
-        <v>500</v>
-      </c>
       <c r="F8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G8" s="3">
         <v>500</v>
       </c>
       <c r="H8" s="3">
+        <v>500</v>
+      </c>
+      <c r="I8" s="3">
+        <v>500</v>
+      </c>
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
       <c r="O8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>200</v>
       </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S8" s="3">
         <v>200</v>
@@ -833,19 +840,19 @@
         <v>100</v>
       </c>
       <c r="U8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V8" s="3">
         <v>100</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
+      <c r="W8" s="3">
+        <v>100</v>
       </c>
       <c r="X8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z8" s="3">
         <v>0</v>
@@ -853,11 +860,17 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -871,28 +884,28 @@
         <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -918,11 +931,11 @@
       <c r="V9" s="3">
         <v>0</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>4</v>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>4</v>
@@ -936,31 +949,37 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <v>400</v>
+      </c>
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>500</v>
-      </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>200</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
@@ -969,22 +988,22 @@
         <v>200</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
         <v>200</v>
       </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S10" s="3">
         <v>200</v>
@@ -993,16 +1012,16 @@
         <v>100</v>
       </c>
       <c r="U10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V10" s="3">
         <v>100</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>4</v>
+      <c r="W10" s="3">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3">
+        <v>100</v>
       </c>
       <c r="Y10" s="3" t="s">
         <v>4</v>
@@ -1016,8 +1035,14 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1060,8 +1087,8 @@
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
@@ -1069,8 +1096,8 @@
       <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -1097,22 +1124,22 @@
         <v>0</v>
       </c>
       <c r="S12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U12" s="3">
         <v>100</v>
       </c>
       <c r="V12" s="3">
-        <v>0</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="W12" s="3">
+        <v>100</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
       </c>
       <c r="Y12" s="3" t="s">
         <v>4</v>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1215,64 +1254,64 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>400</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
@@ -1286,13 +1325,19 @@
       <c r="AB14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1336,11 +1381,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>4</v>
@@ -1348,11 +1393,11 @@
       <c r="V15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,74 +1444,76 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2300</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
       <c r="Y17" s="3">
         <v>0</v>
       </c>
@@ -1473,76 +1526,82 @@
       <c r="AB17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-500</v>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E18" s="3">
         <v>-700</v>
       </c>
       <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-4800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1800</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-2300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-2300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-2700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-2600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-2200</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>0</v>
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z18" s="3">
         <v>0</v>
@@ -1550,11 +1609,17 @@
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,13 +1648,15 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1604,34 +1671,34 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-200</v>
       </c>
       <c r="P20" s="3">
         <v>-400</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1645,14 +1712,14 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
+      <c r="W20" s="3">
+        <v>0</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z20" s="3">
         <v>0</v>
@@ -1660,79 +1727,85 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-4800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-2300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-2300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-2700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-2600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-2200</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>0</v>
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z21" s="3">
         <v>0</v>
@@ -1740,32 +1813,38 @@
       <c r="AA21" s="3">
         <v>0</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>600</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -1773,31 +1852,31 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1805,11 +1884,11 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>4</v>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>4</v>
@@ -1823,74 +1902,80 @@
       <c r="AB22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-2300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-2700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-2600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-2300</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
         <v>0</v>
       </c>
@@ -1903,8 +1988,14 @@
       <c r="AB23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,74 +2160,80 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-2300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-2700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-2600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-2300</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
         <v>0</v>
       </c>
@@ -2143,74 +2246,80 @@
       <c r="AB26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-7700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-2300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-2700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-2600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-2300</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
         <v>0</v>
       </c>
@@ -2223,8 +2332,14 @@
       <c r="AB27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,13 +2676,19 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2564,34 +2703,34 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>400</v>
-      </c>
-      <c r="O32" s="3">
-        <v>200</v>
       </c>
       <c r="P32" s="3">
         <v>400</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2605,14 +2744,14 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
+      <c r="W32" s="3">
+        <v>0</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z32" s="3">
         <v>0</v>
@@ -2620,77 +2759,83 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-7700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-2300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-2700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-2300</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
         <v>0</v>
       </c>
@@ -2703,8 +2848,14 @@
       <c r="AB33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,74 +2934,80 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-7700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-2300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-2700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-2300</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
         <v>0</v>
       </c>
@@ -2863,93 +3020,105 @@
       <c r="AB35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,31 +3179,33 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
       </c>
       <c r="G41" s="3">
+        <v>200</v>
+      </c>
+      <c r="H41" s="3">
+        <v>200</v>
+      </c>
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
-      </c>
-      <c r="I41" s="3">
-        <v>300</v>
-      </c>
-      <c r="J41" s="3">
-        <v>200</v>
       </c>
       <c r="K41" s="3">
         <v>300</v>
@@ -3041,38 +3214,38 @@
         <v>200</v>
       </c>
       <c r="M41" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
-        <v>100</v>
-      </c>
-      <c r="W41" s="3">
-        <v>100</v>
-      </c>
       <c r="X41" s="3">
         <v>100</v>
       </c>
@@ -3088,8 +3261,14 @@
       <c r="AB41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,32 +3347,38 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
-      </c>
-      <c r="E43" s="3">
-        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
       </c>
       <c r="G43" s="3">
+        <v>200</v>
+      </c>
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
+        <v>300</v>
+      </c>
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
@@ -3201,31 +3386,31 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -3248,8 +3433,14 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3266,29 +3457,29 @@
         <v>100</v>
       </c>
       <c r="H44" s="3">
+        <v>100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>100</v>
+      </c>
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3">
-        <v>100</v>
-      </c>
-      <c r="J44" s="3">
-        <v>100</v>
-      </c>
       <c r="K44" s="3">
         <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
+        <v>100</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
         <v>200</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
@@ -3307,11 +3498,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W44" s="3" t="s">
-        <v>4</v>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>4</v>
@@ -3328,8 +3519,14 @@
       <c r="AB44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3340,64 +3537,64 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>0</v>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z45" s="3">
         <v>0</v>
@@ -3408,37 +3605,43 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E46" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F46" s="3">
         <v>600</v>
       </c>
       <c r="G46" s="3">
+        <v>700</v>
+      </c>
+      <c r="H46" s="3">
+        <v>600</v>
+      </c>
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
-      </c>
-      <c r="I46" s="3">
-        <v>500</v>
-      </c>
-      <c r="J46" s="3">
-        <v>400</v>
       </c>
       <c r="K46" s="3">
         <v>500</v>
       </c>
       <c r="L46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M46" s="3">
         <v>500</v>
@@ -3447,28 +3650,28 @@
         <v>300</v>
       </c>
       <c r="O46" s="3">
+        <v>500</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
-        <v>200</v>
-      </c>
       <c r="Q46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
       </c>
       <c r="S46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
       </c>
       <c r="U46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="V46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W46" s="3">
         <v>0</v>
@@ -3488,8 +3691,14 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3548,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="V47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X47" s="3">
         <v>200</v>
@@ -3568,40 +3777,46 @@
       <c r="AB47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
         <v>500</v>
       </c>
       <c r="F48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H48" s="3">
         <v>400</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
@@ -3610,16 +3825,16 @@
         <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
@@ -3627,29 +3842,35 @@
       <c r="U48" s="3">
         <v>100</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
+      <c r="V48" s="3">
+        <v>100</v>
       </c>
       <c r="W48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>4</v>
+      <c r="Y48" s="3">
+        <v>0</v>
       </c>
       <c r="Z48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3657,23 +3878,23 @@
         <v>600</v>
       </c>
       <c r="E49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G49" s="3">
         <v>700</v>
       </c>
       <c r="H49" s="3">
+        <v>700</v>
+      </c>
+      <c r="I49" s="3">
+        <v>700</v>
+      </c>
+      <c r="J49" s="3">
         <v>500</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3686,11 +3907,11 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3944,14 +4183,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
+      <c r="U52" s="3">
+        <v>0</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
+      <c r="W52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,76 +4293,82 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="E54" s="3">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="F54" s="3">
         <v>1700</v>
       </c>
       <c r="G54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I54" s="3">
         <v>2100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>500</v>
-      </c>
-      <c r="J54" s="3">
-        <v>400</v>
-      </c>
-      <c r="K54" s="3">
-        <v>600</v>
       </c>
       <c r="L54" s="3">
         <v>400</v>
       </c>
       <c r="M54" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N54" s="3">
         <v>400</v>
       </c>
       <c r="O54" s="3">
+        <v>500</v>
+      </c>
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
+        <v>400</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>300</v>
-      </c>
-      <c r="R54" s="3">
-        <v>300</v>
       </c>
       <c r="S54" s="3">
         <v>300</v>
       </c>
       <c r="T54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U54" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="V54" s="3">
         <v>200</v>
       </c>
       <c r="W54" s="3">
+        <v>600</v>
+      </c>
+      <c r="X54" s="3">
         <v>200</v>
       </c>
-      <c r="X54" s="3">
-        <v>300</v>
-      </c>
       <c r="Y54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z54" s="3">
         <v>300</v>
@@ -4128,8 +4379,14 @@
       <c r="AB54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4447,10 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4200,7 +4461,7 @@
         <v>800</v>
       </c>
       <c r="F57" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G57" s="3">
         <v>800</v>
@@ -4209,50 +4470,50 @@
         <v>900</v>
       </c>
       <c r="I57" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J57" s="3">
         <v>900</v>
       </c>
       <c r="K57" s="3">
+        <v>700</v>
+      </c>
+      <c r="L57" s="3">
+        <v>900</v>
+      </c>
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
-      </c>
-      <c r="O57" s="3">
-        <v>700</v>
-      </c>
-      <c r="P57" s="3">
-        <v>700</v>
       </c>
       <c r="Q57" s="3">
         <v>700</v>
       </c>
       <c r="R57" s="3">
+        <v>700</v>
+      </c>
+      <c r="S57" s="3">
+        <v>700</v>
+      </c>
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
       <c r="X57" s="3">
         <v>0</v>
       </c>
@@ -4268,73 +4529,79 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F58" s="3">
         <v>2300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>500</v>
       </c>
       <c r="L58" s="3">
         <v>500</v>
       </c>
       <c r="M58" s="3">
+        <v>500</v>
+      </c>
+      <c r="N58" s="3">
+        <v>500</v>
+      </c>
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>400</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -4348,70 +4615,76 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
-      </c>
-      <c r="I59" s="3">
-        <v>600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>600</v>
       </c>
       <c r="K59" s="3">
         <v>600</v>
       </c>
       <c r="L59" s="3">
+        <v>600</v>
+      </c>
+      <c r="M59" s="3">
+        <v>600</v>
+      </c>
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>600</v>
-      </c>
-      <c r="S59" s="3">
-        <v>200</v>
-      </c>
-      <c r="T59" s="3">
-        <v>200</v>
       </c>
       <c r="U59" s="3">
         <v>200</v>
       </c>
       <c r="V59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
@@ -4428,68 +4701,74 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F60" s="3">
         <v>4300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>500</v>
       </c>
-      <c r="U60" s="3">
-        <v>0</v>
-      </c>
-      <c r="V60" s="3">
-        <v>0</v>
-      </c>
       <c r="W60" s="3">
         <v>0</v>
       </c>
@@ -4508,22 +4787,28 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>700</v>
+      </c>
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>300</v>
-      </c>
-      <c r="F61" s="3">
-        <v>500</v>
-      </c>
-      <c r="G61" s="3">
-        <v>500</v>
       </c>
       <c r="H61" s="3">
         <v>500</v>
@@ -4532,29 +4817,29 @@
         <v>500</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>100</v>
+      </c>
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>200</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4588,37 +4873,43 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
       </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="I62" s="3">
+        <v>200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>200</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -4629,11 +4920,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
@@ -4644,11 +4935,11 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,71 +5217,77 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F66" s="3">
         <v>5000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>400</v>
       </c>
-      <c r="V66" s="3">
-        <v>0</v>
-      </c>
-      <c r="W66" s="3">
-        <v>0</v>
-      </c>
       <c r="X66" s="3">
         <v>0</v>
       </c>
@@ -4988,8 +5303,14 @@
       <c r="AB66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5193,37 +5528,37 @@
         <v>2900</v>
       </c>
       <c r="G70" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H70" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I70" s="3">
         <v>2600</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>2600</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>2300</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>2300</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>1800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>700</v>
       </c>
-      <c r="M70" s="3">
-        <v>100</v>
-      </c>
-      <c r="N70" s="3">
-        <v>100</v>
-      </c>
       <c r="O70" s="3">
         <v>100</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,76 +5679,82 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-61400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-60500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-59400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-57500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-56300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-54300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-53700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-46000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-42600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-43100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-41500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-40000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-38600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-36800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-35100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-32800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-30400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-27700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-200</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-100</v>
       </c>
       <c r="Z72" s="3">
         <v>-100</v>
@@ -5418,8 +5765,14 @@
       <c r="AB72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,67 +6023,73 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-6100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-5200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-5000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-4200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-4300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-4000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-3200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-4100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-3400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-300</v>
-      </c>
-      <c r="U76" s="3">
-        <v>200</v>
-      </c>
-      <c r="V76" s="3">
-        <v>200</v>
       </c>
       <c r="W76" s="3">
         <v>200</v>
@@ -5727,10 +6098,10 @@
         <v>200</v>
       </c>
       <c r="Y76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA76" s="3">
         <v>300</v>
@@ -5738,8 +6109,14 @@
       <c r="AB76" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD76" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,159 +6195,171 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-7700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-2300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-2700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-2300</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
         <v>0</v>
       </c>
@@ -5983,8 +6372,14 @@
       <c r="AB81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,71 +6920,77 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-500</v>
       </c>
       <c r="H89" s="3">
         <v>-500</v>
       </c>
       <c r="I89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-400</v>
       </c>
       <c r="P89" s="3">
         <v>-300</v>
       </c>
       <c r="Q89" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="R89" s="3">
         <v>-300</v>
       </c>
       <c r="S89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-1000</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
@@ -6573,8 +7006,14 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,28 +7296,34 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -6878,11 +7337,11 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -6905,11 +7364,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>4</v>
@@ -6917,14 +7376,20 @@
       <c r="Z94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
+      <c r="AA94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7758,14 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7282,31 +7773,31 @@
         <v>300</v>
       </c>
       <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
+        <v>300</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
-      </c>
-      <c r="H100" s="3">
-        <v>300</v>
-      </c>
-      <c r="I100" s="3">
-        <v>500</v>
       </c>
       <c r="J100" s="3">
         <v>300</v>
       </c>
       <c r="K100" s="3">
+        <v>500</v>
+      </c>
+      <c r="L100" s="3">
+        <v>300</v>
+      </c>
+      <c r="M100" s="3">
         <v>800</v>
-      </c>
-      <c r="L100" s="3">
-        <v>400</v>
-      </c>
-      <c r="M100" s="3">
-        <v>400</v>
       </c>
       <c r="N100" s="3">
         <v>400</v>
@@ -7315,46 +7806,52 @@
         <v>400</v>
       </c>
       <c r="P100" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>400</v>
+      </c>
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
         <v>1000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,46 +7930,52 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
       <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>100</v>
@@ -7481,23 +7984,23 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>500</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
@@ -7511,6 +8014,12 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBNT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBNT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>CBNT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,144 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
-      </c>
-      <c r="E8" s="3">
-        <v>600</v>
       </c>
       <c r="F8" s="3">
         <v>600</v>
       </c>
       <c r="G8" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H8" s="3">
         <v>500</v>
@@ -807,28 +811,28 @@
         <v>500</v>
       </c>
       <c r="J8" s="3">
+        <v>500</v>
+      </c>
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
       <c r="L8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>200</v>
       </c>
       <c r="N8" s="3">
+        <v>200</v>
+      </c>
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
         <v>200</v>
@@ -837,25 +841,25 @@
         <v>200</v>
       </c>
       <c r="T8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="V8" s="3">
-        <v>100</v>
-      </c>
       <c r="W8" s="3">
         <v>100</v>
       </c>
       <c r="X8" s="3">
         <v>100</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>0</v>
+      <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA8" s="3">
         <v>0</v>
@@ -866,11 +870,14 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-      <c r="AD8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -890,25 +897,25 @@
         <v>200</v>
       </c>
       <c r="I9" s="3">
+        <v>200</v>
+      </c>
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -937,8 +944,8 @@
       <c r="X9" s="3">
         <v>0</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>4</v>
+      <c r="Y9" s="3">
+        <v>0</v>
       </c>
       <c r="Z9" s="3" t="s">
         <v>4</v>
@@ -955,52 +962,55 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
-      </c>
-      <c r="E10" s="3">
-        <v>400</v>
       </c>
       <c r="F10" s="3">
         <v>400</v>
       </c>
       <c r="G10" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
       <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
       <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
         <v>200</v>
@@ -1009,22 +1019,22 @@
         <v>200</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="V10" s="3">
-        <v>100</v>
-      </c>
       <c r="W10" s="3">
         <v>100</v>
       </c>
       <c r="X10" s="3">
         <v>100</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>4</v>
+      <c r="Y10" s="3">
+        <v>100</v>
       </c>
       <c r="Z10" s="3" t="s">
         <v>4</v>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,14 +1107,14 @@
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
@@ -1130,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V12" s="3">
         <v>100</v>
@@ -1139,10 +1153,10 @@
         <v>100</v>
       </c>
       <c r="X12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
       </c>
       <c r="Z12" s="3" t="s">
         <v>4</v>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,76 +1262,79 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-4500</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>400</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>4</v>
@@ -1331,13 +1351,16 @@
       <c r="AD14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1387,8 +1410,8 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>4</v>
@@ -1399,8 +1422,8 @@
       <c r="X15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,77 +1472,78 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>-3500</v>
       </c>
       <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2300</v>
       </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
       <c r="Z17" s="3">
         <v>0</v>
       </c>
@@ -1532,79 +1559,82 @@
       <c r="AD17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>3900</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1800</v>
       </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
       <c r="O18" s="3">
+        <v>100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-2300</v>
       </c>
       <c r="U18" s="3">
         <v>-2300</v>
       </c>
       <c r="V18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="W18" s="3">
         <v>-2700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>0</v>
+      <c r="Z18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA18" s="3">
         <v>0</v>
@@ -1615,11 +1645,14 @@
       <c r="AC18" s="3">
         <v>0</v>
       </c>
-      <c r="AD18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,13 +1683,14 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1677,32 +1711,32 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1718,11 +1752,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>0</v>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
@@ -1733,82 +1767,85 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-      <c r="AD20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>4000</v>
       </c>
       <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1600</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-2300</v>
       </c>
       <c r="U21" s="3">
         <v>-2300</v>
       </c>
       <c r="V21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="W21" s="3">
         <v>-2700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>0</v>
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA21" s="3">
         <v>0</v>
@@ -1819,11 +1856,14 @@
       <c r="AC21" s="3">
         <v>0</v>
       </c>
-      <c r="AD21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1831,22 +1871,22 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>400</v>
       </c>
       <c r="G22" s="3">
         <v>400</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1858,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>200</v>
@@ -1870,7 +1910,7 @@
         <v>200</v>
       </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
@@ -1879,7 +1919,7 @@
         <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1890,8 +1930,8 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>4</v>
+      <c r="Y22" s="3">
+        <v>0</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>4</v>
@@ -1908,77 +1948,80 @@
       <c r="AD22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>3800</v>
       </c>
       <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
       <c r="Z23" s="3">
         <v>0</v>
       </c>
@@ -1994,8 +2037,11 @@
       <c r="AD23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,77 +2215,80 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>3800</v>
       </c>
       <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
       <c r="Z26" s="3">
         <v>0</v>
       </c>
@@ -2252,77 +2304,80 @@
       <c r="AD26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>3800</v>
       </c>
       <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1000</v>
       </c>
       <c r="G27" s="3">
         <v>-1000</v>
       </c>
       <c r="H27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
       <c r="Z27" s="3">
         <v>0</v>
       </c>
@@ -2338,8 +2393,11 @@
       <c r="AD27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,13 +2749,16 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2709,32 +2779,32 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2750,11 +2820,11 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>0</v>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA32" s="3">
         <v>0</v>
@@ -2765,80 +2835,83 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-      <c r="AD32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>3800</v>
       </c>
       <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1000</v>
       </c>
       <c r="G33" s="3">
         <v>-1000</v>
       </c>
       <c r="H33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
       <c r="Z33" s="3">
         <v>0</v>
       </c>
@@ -2854,8 +2927,11 @@
       <c r="AD33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,77 +3016,80 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>3800</v>
       </c>
       <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1000</v>
       </c>
       <c r="G35" s="3">
         <v>-1000</v>
       </c>
       <c r="H35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
       <c r="Z35" s="3">
         <v>0</v>
       </c>
@@ -3026,99 +3105,105 @@
       <c r="AD35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,19 +3267,20 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
@@ -3202,22 +3289,22 @@
         <v>200</v>
       </c>
       <c r="I41" s="3">
+        <v>200</v>
+      </c>
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
-      </c>
-      <c r="N41" s="3">
-        <v>200</v>
       </c>
       <c r="O41" s="3">
         <v>200</v>
@@ -3226,29 +3313,29 @@
         <v>200</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
         <v>500</v>
       </c>
-      <c r="X41" s="3">
-        <v>100</v>
-      </c>
       <c r="Y41" s="3">
         <v>100</v>
       </c>
@@ -3267,8 +3354,11 @@
       <c r="AD41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,35 +3443,38 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
-      </c>
-      <c r="E43" s="3">
-        <v>300</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
       </c>
       <c r="G43" s="3">
+        <v>300</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>300</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
       </c>
       <c r="J43" s="3">
+        <v>300</v>
+      </c>
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
@@ -3392,19 +3485,19 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
@@ -3413,7 +3506,7 @@
         <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3463,11 +3559,11 @@
         <v>100</v>
       </c>
       <c r="J44" s="3">
+        <v>100</v>
+      </c>
+      <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3">
-        <v>100</v>
-      </c>
       <c r="L44" s="3">
         <v>100</v>
       </c>
@@ -3475,14 +3571,14 @@
         <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
         <v>200</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
@@ -3504,8 +3600,8 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>4</v>
+      <c r="X44" s="3">
+        <v>0</v>
       </c>
       <c r="Y44" s="3" t="s">
         <v>4</v>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3543,46 +3642,46 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3590,14 +3689,14 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
+      <c r="X45" s="3">
+        <v>0</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z45" s="3">
-        <v>0</v>
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
@@ -3611,55 +3710,58 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
-      </c>
-      <c r="P46" s="3">
-        <v>300</v>
       </c>
       <c r="Q46" s="3">
         <v>300</v>
       </c>
       <c r="R46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
@@ -3668,14 +3770,14 @@
         <v>200</v>
       </c>
       <c r="U46" s="3">
+        <v>200</v>
+      </c>
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
       <c r="X46" s="3">
         <v>0</v>
       </c>
@@ -3697,8 +3799,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3763,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="X47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="3">
         <v>200</v>
@@ -3783,16 +3888,19 @@
       <c r="AD47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>300</v>
+      </c>
+      <c r="E48" s="3">
         <v>400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>500</v>
       </c>
       <c r="F48" s="3">
         <v>500</v>
@@ -3801,7 +3909,7 @@
         <v>500</v>
       </c>
       <c r="H48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I48" s="3">
         <v>400</v>
@@ -3810,7 +3918,7 @@
         <v>400</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -3819,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -3831,13 +3939,13 @@
         <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
@@ -3848,14 +3956,14 @@
       <c r="W48" s="3">
         <v>100</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="3" t="s">
-        <v>4</v>
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>4</v>
@@ -3863,14 +3971,17 @@
       <c r="AB48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC48" s="3">
-        <v>0</v>
+      <c r="AC48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3884,7 +3995,7 @@
         <v>600</v>
       </c>
       <c r="G49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H49" s="3">
         <v>700</v>
@@ -3893,11 +4004,11 @@
         <v>700</v>
       </c>
       <c r="J49" s="3">
+        <v>700</v>
+      </c>
+      <c r="K49" s="3">
         <v>500</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3913,8 +4024,8 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4189,11 +4309,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X52" s="3">
-        <v>0</v>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y52" s="3">
         <v>0</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,58 +4422,61 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>500</v>
-      </c>
-      <c r="P54" s="3">
-        <v>400</v>
       </c>
       <c r="Q54" s="3">
         <v>400</v>
       </c>
       <c r="R54" s="3">
+        <v>400</v>
+      </c>
+      <c r="S54" s="3">
         <v>200</v>
-      </c>
-      <c r="S54" s="3">
-        <v>300</v>
       </c>
       <c r="T54" s="3">
         <v>300</v>
@@ -4359,19 +4485,19 @@
         <v>300</v>
       </c>
       <c r="V54" s="3">
+        <v>300</v>
+      </c>
+      <c r="W54" s="3">
         <v>200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>600</v>
-      </c>
-      <c r="X54" s="3">
-        <v>200</v>
       </c>
       <c r="Y54" s="3">
         <v>200</v>
       </c>
       <c r="Z54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA54" s="3">
         <v>300</v>
@@ -4385,8 +4511,11 @@
       <c r="AD54" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,13 +4579,14 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E57" s="3">
         <v>800</v>
@@ -4467,34 +4598,34 @@
         <v>800</v>
       </c>
       <c r="H57" s="3">
+        <v>800</v>
+      </c>
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>700</v>
       </c>
       <c r="R57" s="3">
         <v>700</v>
@@ -4503,20 +4634,20 @@
         <v>700</v>
       </c>
       <c r="T57" s="3">
+        <v>700</v>
+      </c>
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>200</v>
       </c>
-      <c r="X57" s="3">
-        <v>0</v>
-      </c>
       <c r="Y57" s="3">
         <v>0</v>
       </c>
@@ -4535,37 +4666,40 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
         <v>2800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
-      </c>
-      <c r="J58" s="3">
-        <v>600</v>
       </c>
       <c r="K58" s="3">
         <v>600</v>
       </c>
       <c r="L58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M58" s="3">
         <v>500</v>
@@ -4574,37 +4708,37 @@
         <v>500</v>
       </c>
       <c r="O58" s="3">
+        <v>500</v>
+      </c>
+      <c r="P58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>400</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -4621,34 +4755,37 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
-      </c>
-      <c r="K59" s="3">
-        <v>600</v>
       </c>
       <c r="L59" s="3">
         <v>600</v>
@@ -4657,28 +4794,28 @@
         <v>600</v>
       </c>
       <c r="N59" s="3">
+        <v>600</v>
+      </c>
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1100</v>
-      </c>
-      <c r="S59" s="3">
-        <v>600</v>
       </c>
       <c r="T59" s="3">
         <v>600</v>
       </c>
       <c r="U59" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="V59" s="3">
         <v>200</v>
@@ -4687,7 +4824,7 @@
         <v>200</v>
       </c>
       <c r="X59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
@@ -4707,71 +4844,74 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E60" s="3">
         <v>5000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>500</v>
       </c>
-      <c r="W60" s="3">
-        <v>0</v>
-      </c>
       <c r="X60" s="3">
         <v>0</v>
       </c>
@@ -4793,25 +4933,28 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>700</v>
-      </c>
-      <c r="F61" s="3">
-        <v>300</v>
       </c>
       <c r="G61" s="3">
         <v>300</v>
       </c>
       <c r="H61" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I61" s="3">
         <v>500</v>
@@ -4823,26 +4966,26 @@
         <v>500</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>300</v>
       </c>
       <c r="Q61" s="3">
+        <v>300</v>
+      </c>
+      <c r="R61" s="3">
         <v>200</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4879,16 +5022,19 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
-      </c>
-      <c r="E62" s="3">
-        <v>300</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
@@ -4897,7 +5043,7 @@
         <v>300</v>
       </c>
       <c r="H62" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
@@ -4905,14 +5051,14 @@
       <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>200</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -4926,8 +5072,8 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
@@ -4941,8 +5087,8 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,74 +5378,77 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6000</v>
+        <v>3200</v>
       </c>
       <c r="E66" s="3">
         <v>6000</v>
       </c>
       <c r="F66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G66" s="3">
         <v>5000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>400</v>
       </c>
-      <c r="X66" s="3">
-        <v>0</v>
-      </c>
       <c r="Y66" s="3">
         <v>0</v>
       </c>
@@ -5309,8 +5467,11 @@
       <c r="AD66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,47 +5678,50 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E70" s="3">
         <v>2900</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>2800</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>2900</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>2800</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>2900</v>
-      </c>
-      <c r="I70" s="3">
-        <v>2600</v>
       </c>
       <c r="J70" s="3">
         <v>2600</v>
       </c>
       <c r="K70" s="3">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="L70" s="3">
         <v>2300</v>
       </c>
       <c r="M70" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N70" s="3">
         <v>1800</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>700</v>
       </c>
-      <c r="O70" s="3">
-        <v>100</v>
-      </c>
       <c r="P70" s="3">
         <v>100</v>
       </c>
@@ -5561,7 +5729,7 @@
         <v>100</v>
       </c>
       <c r="R70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S70" s="3">
         <v>0</v>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,79 +5856,82 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>63400</v>
+        <v>-59600</v>
       </c>
       <c r="E72" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-62700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-61400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-60500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-59400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-57500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-56300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-54300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-53700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-46000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-42600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-43100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-41500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-40000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-38600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-36800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-35100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-32800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-30400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-27700</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-200</v>
       </c>
       <c r="Y72" s="3">
         <v>-200</v>
       </c>
       <c r="Z72" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AA72" s="3">
         <v>-100</v>
@@ -5771,8 +5945,11 @@
       <c r="AD72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,70 +6212,73 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-10200</v>
+        <v>-3300</v>
       </c>
       <c r="E76" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-7200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-6100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-300</v>
-      </c>
-      <c r="W76" s="3">
-        <v>200</v>
       </c>
       <c r="X76" s="3">
         <v>200</v>
@@ -6104,7 +6290,7 @@
         <v>200</v>
       </c>
       <c r="AA76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AB76" s="3">
         <v>300</v>
@@ -6115,8 +6301,11 @@
       <c r="AD76" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,168 +6390,174 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>3800</v>
       </c>
       <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1000</v>
       </c>
       <c r="G81" s="3">
         <v>-1000</v>
       </c>
       <c r="H81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
       <c r="Z81" s="3">
         <v>0</v>
       </c>
@@ -6378,8 +6573,11 @@
       <c r="AD81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,25 +7140,28 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-400</v>
       </c>
       <c r="F89" s="3">
         <v>-400</v>
       </c>
       <c r="G89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-500</v>
       </c>
       <c r="I89" s="3">
         <v>-500</v>
@@ -6953,28 +7170,28 @@
         <v>-500</v>
       </c>
       <c r="K89" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="L89" s="3">
         <v>-400</v>
       </c>
       <c r="M89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-300</v>
       </c>
       <c r="P89" s="3">
         <v>-300</v>
       </c>
       <c r="Q89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R89" s="3">
         <v>-400</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-300</v>
       </c>
       <c r="S89" s="3">
         <v>-300</v>
@@ -6983,17 +7200,17 @@
         <v>-300</v>
       </c>
       <c r="U89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1000</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
@@ -7012,8 +7229,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,19 +7529,22 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -7322,11 +7552,11 @@
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -7343,8 +7573,8 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -7370,8 +7600,8 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>4</v>
+      <c r="Y94" s="3">
+        <v>0</v>
       </c>
       <c r="Z94" s="3" t="s">
         <v>4</v>
@@ -7382,14 +7612,17 @@
       <c r="AB94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,13 +8007,16 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>300</v>
+        <v>-2000</v>
       </c>
       <c r="E100" s="3">
         <v>300</v>
@@ -7779,28 +8025,28 @@
         <v>300</v>
       </c>
       <c r="G100" s="3">
+        <v>300</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
-      </c>
-      <c r="N100" s="3">
-        <v>400</v>
       </c>
       <c r="O100" s="3">
         <v>400</v>
@@ -7812,29 +8058,29 @@
         <v>400</v>
       </c>
       <c r="R100" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S100" s="3">
         <v>300</v>
       </c>
       <c r="T100" s="3">
+        <v>300</v>
+      </c>
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3">
-        <v>100</v>
-      </c>
       <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
         <v>1000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z100" s="3" t="s">
         <v>4</v>
       </c>
@@ -7844,14 +8090,17 @@
       <c r="AB100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC100" s="3">
-        <v>0</v>
+      <c r="AC100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,74 +8185,77 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
         <v>100</v>
       </c>
       <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
         <v>100</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>500</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
@@ -8020,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
